--- a/org.panorama-research.mobstr.requirements/mobstr-requirements.xlsx
+++ b/org.panorama-research.mobstr.requirements/mobstr-requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WATERS Challenge Artifacts\org.panorama-research.waters-2019.requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janste/git/waters-challenge-2019/org.panorama-research.mobstr.requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E740A206-0F8B-43BA-AA34-55116C8C9B19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B541882-08AE-6647-A23C-791A9627ECC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="465" windowWidth="29505" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8320" yWindow="3040" windowWidth="28040" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
@@ -45,16 +45,25 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-This is inconsistent with mapping of S1.1.2 which is mapped to the Lidar Grabber --&gt; Sub-requirements shall be mapped to sub-components. Better map to Object Detection?</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>This is inconsistent with mapping of S1.1.2 which is mapped to the Lidar Grabber --&gt; Sub-requirements shall be mapped to sub-components. Better map to Object Detection?</t>
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="G83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -629,13 +638,97 @@
   </si>
   <si>
     <t>[Reference to SR-1.2 including sub-requirements]</t>
+  </si>
+  <si>
+    <t>SR-1.3.1</t>
+  </si>
+  <si>
+    <t>The system shall identify when the path planner has failed.</t>
+  </si>
+  <si>
+    <t>SR-1.3.2</t>
+  </si>
+  <si>
+    <t>The system shall identify when the object detection has failed.</t>
+  </si>
+  <si>
+    <t>SR-1.3.3</t>
+  </si>
+  <si>
+    <t>The system shall identify when the sensor fusion has failed.</t>
+  </si>
+  <si>
+    <t>SR-2.5.1</t>
+  </si>
+  <si>
+    <t>The system shall identify when the steering actuators do not engage.</t>
+  </si>
+  <si>
+    <t>SR-2.7.1</t>
+  </si>
+  <si>
+    <t>The system shall identify when the brake actuators do not engage.</t>
+  </si>
+  <si>
+    <t>SR-2.4.2</t>
+  </si>
+  <si>
+    <t>The system shall detect when the steering commands are out of reasonable bounds (tbd).</t>
+  </si>
+  <si>
+    <t>SR-2.5.2</t>
+  </si>
+  <si>
+    <t>The system shall identify when the steering actuators over- or undershoot the steering commands.</t>
+  </si>
+  <si>
+    <t>SR-4.3.2</t>
+  </si>
+  <si>
+    <t>The system shall do a sanity check on the identified objects to avoid unintended acceleration.</t>
+  </si>
+  <si>
+    <t>SR-4.3.3</t>
+  </si>
+  <si>
+    <t>The system shall do a sanity check on the current location to avoid unintended acceleration.</t>
+  </si>
+  <si>
+    <t>SR-4.3.4</t>
+  </si>
+  <si>
+    <t>The system shall do a sanity check on the fused sensor data to avoid unintended acceleration.</t>
+  </si>
+  <si>
+    <t>SR-4.3.3.1</t>
+  </si>
+  <si>
+    <t>The system shall check whether a change in location is attainable at the current speed.</t>
+  </si>
+  <si>
+    <t>SR-4.3.3.2</t>
+  </si>
+  <si>
+    <t>The system shall check whether a change in location is attainable with the current trajectory.</t>
+  </si>
+  <si>
+    <t>The system shall detect when the steering commands will bring the vehicle outside of road boundaries.</t>
+  </si>
+  <si>
+    <t>SR-5.3.2</t>
+  </si>
+  <si>
+    <t>SR-5.3.3</t>
+  </si>
+  <si>
+    <t>The system shall detect when the road lane cannot be identified unambiguously.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -647,12 +740,14 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="0"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -672,6 +767,20 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -820,7 +929,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1132,26 +1241,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK131"/>
+  <dimension ref="A1:AK145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="16" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="148.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="148.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="35.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="98.125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="1"/>
+    <col min="6" max="6" width="20.1640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="98.1640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="22">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="19" customFormat="1" ht="22">
       <c r="A2" s="18" t="s">
         <v>62</v>
       </c>
@@ -1188,7 +1297,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="22">
       <c r="A3" s="13" t="s">
         <v>85</v>
       </c>
@@ -1202,7 +1311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="22">
       <c r="A4" s="13" t="s">
         <v>86</v>
       </c>
@@ -1216,7 +1325,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="22">
       <c r="A5" s="13" t="s">
         <v>87</v>
       </c>
@@ -1230,7 +1339,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="22">
       <c r="A6" s="13" t="s">
         <v>88</v>
       </c>
@@ -1244,7 +1353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="22">
       <c r="A7" s="13" t="s">
         <v>89</v>
       </c>
@@ -1258,7 +1367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" s="28" customFormat="1">
       <c r="A8" s="27" t="s">
         <v>70</v>
       </c>
@@ -1266,7 +1375,7 @@
       <c r="C8" s="30"/>
       <c r="F8" s="29"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="22">
       <c r="A9" s="13" t="s">
         <v>90</v>
       </c>
@@ -1280,7 +1389,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>91</v>
       </c>
@@ -1315,7 +1424,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="22">
       <c r="A11" s="13" t="s">
         <v>92</v>
       </c>
@@ -1329,7 +1438,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" s="28" customFormat="1">
       <c r="A12" s="27" t="s">
         <v>70</v>
       </c>
@@ -1337,7 +1446,7 @@
       <c r="C12" s="30"/>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="11" customFormat="1" ht="22">
       <c r="A13" s="13" t="s">
         <v>93</v>
       </c>
@@ -1348,262 +1457,311 @@
         <v>77</v>
       </c>
       <c r="G13" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="11" customFormat="1" ht="22">
+      <c r="A14" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+    <row r="15" spans="1:25" s="11" customFormat="1" ht="22">
+      <c r="A15" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="11" customFormat="1" ht="22">
+      <c r="A16" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" s="29" customFormat="1">
+      <c r="A17" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="31"/>
-    </row>
-    <row r="15" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="C17" s="31"/>
+    </row>
+    <row r="18" spans="1:37" s="11" customFormat="1" ht="22">
+      <c r="A18" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C18" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+    <row r="19" spans="1:37" s="29" customFormat="1">
+      <c r="A19" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="31"/>
-    </row>
-    <row r="17" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="C19" s="31"/>
+    </row>
+    <row r="20" spans="1:37" s="11" customFormat="1" ht="22">
+      <c r="A20" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C20" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+    <row r="21" spans="1:37" s="29" customFormat="1">
+      <c r="A21" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="31"/>
-    </row>
-    <row r="19" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="C21" s="31"/>
+    </row>
+    <row r="22" spans="1:37" s="11" customFormat="1" ht="22">
+      <c r="A22" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C22" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+    <row r="23" spans="1:37" s="29" customFormat="1">
+      <c r="A23" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="31"/>
-    </row>
-    <row r="21" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="C21" s="26"/>
-    </row>
-    <row r="22" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="C22" s="26"/>
-    </row>
-    <row r="23" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="C23" s="31"/>
+    </row>
+    <row r="24" spans="1:37" s="11" customFormat="1">
+      <c r="A24" s="13"/>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:37" s="11" customFormat="1">
+      <c r="A25" s="13"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:37" s="19" customFormat="1" ht="22">
+      <c r="A26" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B26" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C26" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D26" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+    <row r="27" spans="1:37" ht="22">
+      <c r="A27" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C27" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D27" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="33" t="s">
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="33" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+    <row r="28" spans="1:37" ht="22">
+      <c r="A28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C28" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D28" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="33" t="s">
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+    <row r="29" spans="1:37" s="11" customFormat="1" ht="22">
+      <c r="A29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C29" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="31"/>
-    </row>
-    <row r="28" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
-    </row>
-    <row r="30" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" s="29" customFormat="1">
       <c r="A30" s="27" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="31"/>
     </row>
-    <row r="31" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" s="11" customFormat="1" ht="22">
       <c r="A31" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" s="5" customFormat="1" ht="22">
+      <c r="A32" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="31"/>
-    </row>
-    <row r="33" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+    </row>
+    <row r="33" spans="1:37" s="5" customFormat="1" ht="22">
       <c r="A33" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+    </row>
+    <row r="34" spans="1:37" s="29" customFormat="1">
       <c r="A34" s="27" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="31"/>
     </row>
-    <row r="35" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" s="11" customFormat="1" ht="22">
       <c r="A35" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>77</v>
@@ -1612,180 +1770,144 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="F36" s="29"/>
-    </row>
-    <row r="37" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" s="11" customFormat="1" ht="22">
+      <c r="A36" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" s="11" customFormat="1" ht="22">
       <c r="A37" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="8" t="s">
-        <v>162</v>
+        <v>194</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>195</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="11"/>
+        <v>55</v>
+      </c>
       <c r="G37" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="2"/>
-    </row>
-    <row r="38" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:37" s="29" customFormat="1">
       <c r="A38" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="F38" s="29"/>
-    </row>
-    <row r="39" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="31"/>
+    </row>
+    <row r="39" spans="1:37" s="11" customFormat="1" ht="22">
+      <c r="A39" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" s="29" customFormat="1">
+      <c r="A40" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="31"/>
+    </row>
+    <row r="41" spans="1:37" s="11" customFormat="1" ht="22">
+      <c r="A41" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" s="11" customFormat="1" ht="22">
       <c r="A42" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" s="28" customFormat="1">
+      <c r="A43" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="1:37" s="5" customFormat="1" ht="22">
       <c r="A44" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="8" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+    </row>
+    <row r="45" spans="1:37" s="28" customFormat="1">
       <c r="A45" s="27" t="s">
         <v>70</v>
       </c>
@@ -1793,515 +1915,430 @@
       <c r="C45" s="30"/>
       <c r="F45" s="29"/>
     </row>
-    <row r="46" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+    <row r="46" spans="1:37" s="5" customFormat="1">
+      <c r="A46" s="13"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+    </row>
+    <row r="47" spans="1:37">
+      <c r="A47" s="13"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:37" s="7" customFormat="1" ht="22">
+      <c r="A48" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="2" customFormat="1" ht="22">
+      <c r="A49" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="2" customFormat="1" ht="22">
+      <c r="A50" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="2" customFormat="1" ht="22">
+      <c r="A51" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="28" customFormat="1">
+      <c r="A52" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30"/>
+      <c r="F52" s="29"/>
+    </row>
+    <row r="53" spans="1:7" s="2" customFormat="1" ht="22">
+      <c r="A53" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="8" t="s">
+      <c r="B53" s="11"/>
+      <c r="C53" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="2" t="s">
+      <c r="F53" s="11"/>
+      <c r="G53" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27" t="s">
+    <row r="54" spans="1:7" s="28" customFormat="1">
+      <c r="A54" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="F47" s="29"/>
-    </row>
-    <row r="48" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="F54" s="29"/>
+    </row>
+    <row r="55" spans="1:7" s="2" customFormat="1" ht="22">
+      <c r="A55" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="8" t="s">
+      <c r="B55" s="11"/>
+      <c r="C55" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="2" t="s">
+      <c r="F55" s="11"/>
+      <c r="G55" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+    <row r="56" spans="1:7" s="28" customFormat="1">
+      <c r="A56" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="F49" s="29"/>
-    </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+      <c r="B56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="F56" s="29"/>
+    </row>
+    <row r="57" spans="1:7" s="2" customFormat="1" ht="22">
+      <c r="A57" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="8" t="s">
+      <c r="B57" s="11"/>
+      <c r="C57" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="2" t="s">
+      <c r="F57" s="11"/>
+      <c r="G57" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+    <row r="58" spans="1:7" ht="22">
+      <c r="A58" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C58" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+    <row r="59" spans="1:7" ht="22">
+      <c r="A59" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C59" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-    </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" s="13"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" s="7" customFormat="1" ht="22">
+      <c r="A62" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B62" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F62" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+    <row r="63" spans="1:7" ht="22">
+      <c r="A63" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C63" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D63" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="33" t="s">
+      <c r="E63" s="33"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="33" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
+    <row r="64" spans="1:7" ht="22">
+      <c r="A64" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C64" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D64" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="33" t="s">
+      <c r="E64" s="33"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
+    <row r="65" spans="1:7" ht="22">
+      <c r="A65" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
+    <row r="66" spans="1:7" ht="22">
+      <c r="A66" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="30"/>
-      <c r="F60" s="29"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
-      <c r="F63" s="29"/>
-    </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="30"/>
-      <c r="F65" s="29"/>
-    </row>
-    <row r="66" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="30"/>
-      <c r="F67" s="29"/>
-    </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="C68" s="8"/>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
-      <c r="AC69" s="2"/>
-      <c r="AD69" s="2"/>
-      <c r="AE69" s="2"/>
-      <c r="AF69" s="2"/>
-      <c r="AG69" s="2"/>
-      <c r="AH69" s="2"/>
-      <c r="AI69" s="2"/>
-      <c r="AJ69" s="2"/>
-      <c r="AK69" s="2"/>
-    </row>
-    <row r="70" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F70" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="11"/>
+    <row r="67" spans="1:7" ht="22">
+      <c r="A67" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="22">
+      <c r="A68" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="22">
+      <c r="A69" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="22">
+      <c r="A70" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="22">
+      <c r="A71" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="C71" s="8" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F71" s="11"/>
+        <v>58</v>
+      </c>
       <c r="G71" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
-      <c r="AA72" s="2"/>
-      <c r="AB72" s="2"/>
-      <c r="AC72" s="2"/>
-      <c r="AD72" s="2"/>
-      <c r="AE72" s="2"/>
-      <c r="AF72" s="2"/>
-      <c r="AG72" s="2"/>
-      <c r="AH72" s="2"/>
-      <c r="AI72" s="2"/>
-      <c r="AJ72" s="2"/>
-      <c r="AK72" s="2"/>
-    </row>
-    <row r="73" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="27" t="s">
+    <row r="72" spans="1:7" s="28" customFormat="1">
+      <c r="A72" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="30"/>
-      <c r="F73" s="29"/>
-    </row>
-    <row r="74" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B74" s="11"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="30"/>
+      <c r="F72" s="29"/>
+    </row>
+    <row r="73" spans="1:7" ht="22">
+      <c r="A73" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="22">
+      <c r="A74" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="C74" s="8" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
-      <c r="AB75" s="2"/>
-      <c r="AC75" s="2"/>
-      <c r="AD75" s="2"/>
-      <c r="AE75" s="2"/>
-      <c r="AF75" s="2"/>
-      <c r="AG75" s="2"/>
-      <c r="AH75" s="2"/>
-      <c r="AI75" s="2"/>
-      <c r="AJ75" s="2"/>
-      <c r="AK75" s="2"/>
-    </row>
-    <row r="76" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="28" customFormat="1">
+      <c r="A75" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="29"/>
+      <c r="C75" s="30"/>
+      <c r="F75" s="29"/>
+    </row>
+    <row r="76" spans="1:7" s="2" customFormat="1" ht="22">
       <c r="A76" s="13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B76" s="11"/>
-      <c r="C76" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E76" s="2"/>
+      <c r="C76" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F76" s="11"/>
-      <c r="G76" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-      <c r="AA76" s="2"/>
-      <c r="AB76" s="2"/>
-      <c r="AC76" s="2"/>
-      <c r="AD76" s="2"/>
-      <c r="AE76" s="2"/>
-      <c r="AF76" s="2"/>
-      <c r="AG76" s="2"/>
-      <c r="AH76" s="2"/>
-      <c r="AI76" s="2"/>
-      <c r="AJ76" s="2"/>
-      <c r="AK76" s="2"/>
-    </row>
-    <row r="77" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="28" customFormat="1">
       <c r="A77" s="27" t="s">
         <v>70</v>
       </c>
@@ -2309,159 +2346,154 @@
       <c r="C77" s="30"/>
       <c r="F77" s="29"/>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>68</v>
+    <row r="78" spans="1:7" s="2" customFormat="1" ht="22">
+      <c r="A78" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="28" customFormat="1">
+      <c r="A79" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="29"/>
+      <c r="C79" s="30"/>
+      <c r="F79" s="29"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="C80" s="8"/>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:37" s="5" customFormat="1">
+      <c r="A81" s="13"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="2"/>
+      <c r="AE81" s="2"/>
+      <c r="AF81" s="2"/>
+      <c r="AG81" s="2"/>
+      <c r="AH81" s="2"/>
+      <c r="AI81" s="2"/>
+      <c r="AJ81" s="2"/>
+      <c r="AK81" s="2"/>
+    </row>
+    <row r="82" spans="1:37" s="7" customFormat="1" ht="22">
+      <c r="A82" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F82" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:37" s="2" customFormat="1" ht="22">
+      <c r="A83" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="F83" s="11"/>
+      <c r="G83" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:37" s="5" customFormat="1" ht="22">
+      <c r="A84" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
-      <c r="AA79" s="2"/>
-      <c r="AB79" s="2"/>
-      <c r="AC79" s="2"/>
-      <c r="AD79" s="2"/>
-      <c r="AE79" s="2"/>
-      <c r="AF79" s="2"/>
-      <c r="AG79" s="2"/>
-      <c r="AH79" s="2"/>
-      <c r="AI79" s="2"/>
-      <c r="AJ79" s="2"/>
-      <c r="AK79" s="2"/>
-    </row>
-    <row r="80" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="30"/>
-      <c r="F80" s="29"/>
-    </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
-      <c r="Z82" s="2"/>
-      <c r="AA82" s="2"/>
-      <c r="AB82" s="2"/>
-      <c r="AC82" s="2"/>
-      <c r="AD82" s="2"/>
-      <c r="AE82" s="2"/>
-      <c r="AF82" s="2"/>
-      <c r="AG82" s="2"/>
-      <c r="AH82" s="2"/>
-      <c r="AI82" s="2"/>
-      <c r="AJ82" s="2"/>
-      <c r="AK82" s="2"/>
-    </row>
-    <row r="83" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B83" s="29"/>
-      <c r="C83" s="30"/>
-      <c r="F83" s="29"/>
-    </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A84" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="2"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
+      <c r="AF84" s="2"/>
+      <c r="AG84" s="2"/>
+      <c r="AH84" s="2"/>
+      <c r="AI84" s="2"/>
+      <c r="AJ84" s="2"/>
+      <c r="AK84" s="2"/>
+    </row>
+    <row r="85" spans="1:37" s="28" customFormat="1">
       <c r="A85" s="27" t="s">
         <v>70</v>
       </c>
@@ -2469,119 +2501,199 @@
       <c r="C85" s="30"/>
       <c r="F85" s="29"/>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A86" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>72</v>
+    <row r="86" spans="1:37" s="2" customFormat="1" ht="22">
+      <c r="A86" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G86" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="27" t="s">
+      <c r="F86" s="11"/>
+      <c r="G86" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:37" s="5" customFormat="1" ht="22">
+      <c r="A87" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
+      <c r="AE87" s="2"/>
+      <c r="AF87" s="2"/>
+      <c r="AG87" s="2"/>
+      <c r="AH87" s="2"/>
+      <c r="AI87" s="2"/>
+      <c r="AJ87" s="2"/>
+      <c r="AK87" s="2"/>
+    </row>
+    <row r="88" spans="1:37" s="5" customFormat="1" ht="22">
+      <c r="A88" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
+      <c r="AD88" s="2"/>
+      <c r="AE88" s="2"/>
+      <c r="AF88" s="2"/>
+      <c r="AG88" s="2"/>
+      <c r="AH88" s="2"/>
+      <c r="AI88" s="2"/>
+      <c r="AJ88" s="2"/>
+      <c r="AK88" s="2"/>
+    </row>
+    <row r="89" spans="1:37" s="5" customFormat="1" ht="22">
+      <c r="A89" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
+      <c r="AD89" s="2"/>
+      <c r="AE89" s="2"/>
+      <c r="AF89" s="2"/>
+      <c r="AG89" s="2"/>
+      <c r="AH89" s="2"/>
+      <c r="AI89" s="2"/>
+      <c r="AJ89" s="2"/>
+      <c r="AK89" s="2"/>
+    </row>
+    <row r="90" spans="1:37" s="28" customFormat="1">
+      <c r="A90" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B87" s="29"/>
-      <c r="C87" s="30"/>
-      <c r="F87" s="29"/>
-    </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="B90" s="29"/>
+      <c r="C90" s="30"/>
+      <c r="F90" s="29"/>
+    </row>
+    <row r="91" spans="1:37" ht="22">
+      <c r="A91" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G88" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B89" s="29"/>
-      <c r="C89" s="30"/>
-      <c r="F89" s="29"/>
-    </row>
-    <row r="90" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="2"/>
-      <c r="V90" s="2"/>
-      <c r="W90" s="2"/>
-      <c r="X90" s="2"/>
-      <c r="Y90" s="2"/>
-      <c r="Z90" s="2"/>
-      <c r="AA90" s="2"/>
-      <c r="AB90" s="2"/>
-      <c r="AC90" s="2"/>
-      <c r="AD90" s="2"/>
-      <c r="AE90" s="2"/>
-      <c r="AF90" s="2"/>
-      <c r="AG90" s="2"/>
-      <c r="AH90" s="2"/>
-      <c r="AI90" s="2"/>
-      <c r="AJ90" s="2"/>
-      <c r="AK90" s="2"/>
-    </row>
-    <row r="91" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B91" s="29"/>
-      <c r="C91" s="30"/>
-      <c r="F91" s="29"/>
-    </row>
-    <row r="92" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G91" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:37" s="5" customFormat="1" ht="22">
       <c r="A92" s="13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="11"/>
-      <c r="G92" s="11" t="s">
+      <c r="G92" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H92" s="2"/>
@@ -2615,77 +2727,91 @@
       <c r="AJ92" s="2"/>
       <c r="AK92" s="2"/>
     </row>
-    <row r="93" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+    <row r="93" spans="1:37" s="5" customFormat="1" ht="22">
+      <c r="A93" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
+      <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
+      <c r="AD93" s="2"/>
+      <c r="AE93" s="2"/>
+      <c r="AF93" s="2"/>
+      <c r="AG93" s="2"/>
+      <c r="AH93" s="2"/>
+      <c r="AI93" s="2"/>
+      <c r="AJ93" s="2"/>
+      <c r="AK93" s="2"/>
+    </row>
+    <row r="94" spans="1:37" s="28" customFormat="1">
+      <c r="A94" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="30"/>
-      <c r="F93" s="29"/>
-    </row>
-    <row r="94" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="B94" s="29"/>
+      <c r="C94" s="30"/>
+      <c r="F94" s="29"/>
+    </row>
+    <row r="95" spans="1:37" ht="22">
+      <c r="A95" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E94" s="2"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
-      <c r="V94" s="2"/>
-      <c r="W94" s="2"/>
-      <c r="X94" s="2"/>
-      <c r="Y94" s="2"/>
-      <c r="Z94" s="2"/>
-      <c r="AA94" s="2"/>
-      <c r="AB94" s="2"/>
-      <c r="AC94" s="2"/>
-      <c r="AD94" s="2"/>
-      <c r="AE94" s="2"/>
-      <c r="AF94" s="2"/>
-      <c r="AG94" s="2"/>
-      <c r="AH94" s="2"/>
-      <c r="AI94" s="2"/>
-      <c r="AJ94" s="2"/>
-      <c r="AK94" s="2"/>
-    </row>
-    <row r="95" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B95" s="29"/>
-      <c r="C95" s="30"/>
-      <c r="F95" s="29"/>
-    </row>
-    <row r="96" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="13"/>
+      <c r="G95" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:37" s="5" customFormat="1" ht="22">
+      <c r="A96" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="B96" s="11"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="2"/>
+      <c r="C96" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E96" s="2"/>
       <c r="F96" s="11"/>
-      <c r="G96" s="2"/>
+      <c r="G96" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
@@ -2717,236 +2843,285 @@
       <c r="AJ96" s="2"/>
       <c r="AK96" s="2"/>
     </row>
-    <row r="97" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="13"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
-      <c r="V97" s="2"/>
-      <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
-      <c r="Z97" s="2"/>
-      <c r="AA97" s="2"/>
-      <c r="AB97" s="2"/>
-      <c r="AC97" s="2"/>
-      <c r="AD97" s="2"/>
-      <c r="AE97" s="2"/>
-      <c r="AF97" s="2"/>
-      <c r="AG97" s="2"/>
-      <c r="AH97" s="2"/>
-      <c r="AI97" s="2"/>
-      <c r="AJ97" s="2"/>
-      <c r="AK97" s="2"/>
-    </row>
-    <row r="98" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A100" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>13</v>
+    <row r="97" spans="1:37" s="28" customFormat="1">
+      <c r="A97" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="29"/>
+      <c r="C97" s="30"/>
+      <c r="F97" s="29"/>
+    </row>
+    <row r="98" spans="1:37" ht="22">
+      <c r="A98" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:37" s="28" customFormat="1">
+      <c r="A99" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" s="29"/>
+      <c r="C99" s="30"/>
+      <c r="F99" s="29"/>
+    </row>
+    <row r="100" spans="1:37" ht="22">
+      <c r="A100" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A101" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:37" s="28" customFormat="1">
+      <c r="A101" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="29"/>
+      <c r="C101" s="30"/>
+      <c r="F101" s="29"/>
+    </row>
+    <row r="102" spans="1:37" ht="22">
       <c r="A102" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>15</v>
+        <v>132</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A103" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B103" s="25"/>
-      <c r="C103" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A104" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B104" s="25"/>
+        <v>77</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:37" s="28" customFormat="1">
+      <c r="A103" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B103" s="29"/>
+      <c r="C103" s="30"/>
+      <c r="F103" s="29"/>
+    </row>
+    <row r="104" spans="1:37" s="5" customFormat="1" ht="22">
+      <c r="A104" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" s="11"/>
       <c r="C104" s="8" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A105" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A106" s="15" t="s">
-        <v>144</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="2"/>
+      <c r="AB104" s="2"/>
+      <c r="AC104" s="2"/>
+      <c r="AD104" s="2"/>
+      <c r="AE104" s="2"/>
+      <c r="AF104" s="2"/>
+      <c r="AG104" s="2"/>
+      <c r="AH104" s="2"/>
+      <c r="AI104" s="2"/>
+      <c r="AJ104" s="2"/>
+      <c r="AK104" s="2"/>
+    </row>
+    <row r="105" spans="1:37" s="28" customFormat="1">
+      <c r="A105" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B105" s="29"/>
+      <c r="C105" s="30"/>
+      <c r="F105" s="29"/>
+    </row>
+    <row r="106" spans="1:37" s="5" customFormat="1" ht="22">
+      <c r="A106" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="11"/>
       <c r="C106" s="8" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A108" s="15" t="s">
-        <v>146</v>
-      </c>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
+      <c r="AB106" s="2"/>
+      <c r="AC106" s="2"/>
+      <c r="AD106" s="2"/>
+      <c r="AE106" s="2"/>
+      <c r="AF106" s="2"/>
+      <c r="AG106" s="2"/>
+      <c r="AH106" s="2"/>
+      <c r="AI106" s="2"/>
+      <c r="AJ106" s="2"/>
+      <c r="AK106" s="2"/>
+    </row>
+    <row r="107" spans="1:37" s="28" customFormat="1">
+      <c r="A107" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="29"/>
+      <c r="C107" s="30"/>
+      <c r="F107" s="29"/>
+    </row>
+    <row r="108" spans="1:37" s="5" customFormat="1" ht="22">
+      <c r="A108" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B108" s="11"/>
       <c r="C108" s="8" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A110" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="111" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
+      <c r="AC108" s="2"/>
+      <c r="AD108" s="2"/>
+      <c r="AE108" s="2"/>
+      <c r="AF108" s="2"/>
+      <c r="AG108" s="2"/>
+      <c r="AH108" s="2"/>
+      <c r="AI108" s="2"/>
+      <c r="AJ108" s="2"/>
+      <c r="AK108" s="2"/>
+    </row>
+    <row r="109" spans="1:37" s="28" customFormat="1">
+      <c r="A109" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B109" s="29"/>
+      <c r="C109" s="30"/>
+      <c r="F109" s="29"/>
+    </row>
+    <row r="110" spans="1:37" s="5" customFormat="1">
+      <c r="A110" s="13"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
+      <c r="AC110" s="2"/>
+      <c r="AD110" s="2"/>
+      <c r="AE110" s="2"/>
+      <c r="AF110" s="2"/>
+      <c r="AG110" s="2"/>
+      <c r="AH110" s="2"/>
+      <c r="AI110" s="2"/>
+      <c r="AJ110" s="2"/>
+      <c r="AK110" s="2"/>
+    </row>
+    <row r="111" spans="1:37" s="5" customFormat="1">
       <c r="A111" s="13"/>
       <c r="B111" s="11"/>
       <c r="C111" s="8"/>
@@ -2985,252 +3160,205 @@
       <c r="AJ111" s="2"/>
       <c r="AK111" s="2"/>
     </row>
-    <row r="112" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="13"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="2"/>
-      <c r="V112" s="2"/>
-      <c r="W112" s="2"/>
-      <c r="X112" s="2"/>
-      <c r="Y112" s="2"/>
-      <c r="Z112" s="2"/>
-      <c r="AA112" s="2"/>
-      <c r="AB112" s="2"/>
-      <c r="AC112" s="2"/>
-      <c r="AD112" s="2"/>
-      <c r="AE112" s="2"/>
-      <c r="AF112" s="2"/>
-      <c r="AG112" s="2"/>
-      <c r="AH112" s="2"/>
-      <c r="AI112" s="2"/>
-      <c r="AJ112" s="2"/>
-      <c r="AK112" s="2"/>
-    </row>
-    <row r="113" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D113" s="22" t="s">
+    <row r="112" spans="1:37" s="22" customFormat="1" ht="22">
+      <c r="A112" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" ht="22">
+      <c r="A113" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:37" ht="22">
       <c r="A114" s="13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:37" ht="22">
+      <c r="A115" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:37" ht="22">
+      <c r="A116" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:37" ht="22">
+      <c r="A117" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B117" s="25"/>
+      <c r="C117" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G114" s="1" t="s">
+      <c r="E117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B115" s="11"/>
-      <c r="C115" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F115" s="11"/>
-      <c r="G115" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="116" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F116" s="11"/>
-      <c r="G116" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A117" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="118" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>3</v>
+    <row r="118" spans="1:37" ht="22">
+      <c r="A118" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B118" s="25"/>
+      <c r="C118" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A119" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:37" ht="22">
+      <c r="A119" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A120" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B120" s="24"/>
+      <c r="G119" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:37" ht="22">
+      <c r="A120" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="C120" s="8" t="s">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A121" s="13"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="8"/>
-    </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A122" s="13"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="8"/>
-    </row>
-    <row r="123" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D123" s="22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="124" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B124" s="11"/>
+      <c r="G120" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:37" ht="22">
+      <c r="A121" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:37" ht="22">
+      <c r="A122" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:37" ht="20.25" customHeight="1">
+      <c r="A123" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:37" ht="22">
+      <c r="A124" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="C124" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E124" s="2"/>
-      <c r="F124" s="11"/>
       <c r="G124" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="2"/>
-      <c r="R124" s="2"/>
-      <c r="S124" s="2"/>
-      <c r="T124" s="2"/>
-      <c r="U124" s="2"/>
-      <c r="V124" s="2"/>
-      <c r="W124" s="2"/>
-      <c r="X124" s="2"/>
-      <c r="Y124" s="2"/>
-      <c r="Z124" s="2"/>
-      <c r="AA124" s="2"/>
-      <c r="AB124" s="2"/>
-      <c r="AC124" s="2"/>
-      <c r="AD124" s="2"/>
-      <c r="AE124" s="2"/>
-      <c r="AF124" s="2"/>
-      <c r="AG124" s="2"/>
-      <c r="AH124" s="2"/>
-      <c r="AI124" s="2"/>
-      <c r="AJ124" s="2"/>
-      <c r="AK124" s="2"/>
-    </row>
-    <row r="125" spans="1:37" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="13" t="s">
-        <v>156</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:37" s="5" customFormat="1">
+      <c r="A125" s="13"/>
       <c r="B125" s="11"/>
-      <c r="C125" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="11"/>
-      <c r="G125" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
@@ -3261,24 +3389,14 @@
       <c r="AJ125" s="2"/>
       <c r="AK125" s="2"/>
     </row>
-    <row r="126" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="13" t="s">
-        <v>157</v>
-      </c>
+    <row r="126" spans="1:37" s="5" customFormat="1">
+      <c r="A126" s="13"/>
       <c r="B126" s="11"/>
-      <c r="C126" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
       <c r="F126" s="11"/>
-      <c r="G126" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
@@ -3310,103 +3428,389 @@
       <c r="AJ126" s="2"/>
       <c r="AK126" s="2"/>
     </row>
-    <row r="127" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="13" t="s">
+    <row r="127" spans="1:37" s="22" customFormat="1" ht="22">
+      <c r="A127" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:37" ht="22">
+      <c r="A128" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:37" s="2" customFormat="1" ht="22">
+      <c r="A129" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B129" s="11"/>
+      <c r="C129" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F129" s="11"/>
+      <c r="G129" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="1:37" s="2" customFormat="1" ht="22">
+      <c r="A130" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130" s="11"/>
+      <c r="G130" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:37" ht="22">
+      <c r="A131" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:37" ht="20.25" customHeight="1">
+      <c r="A132" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="133" spans="1:37" ht="22">
+      <c r="A133" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:37" ht="22">
+      <c r="A134" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B134" s="24"/>
+      <c r="C134" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:37">
+      <c r="A135" s="13"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="8"/>
+    </row>
+    <row r="136" spans="1:37">
+      <c r="A136" s="13"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="8"/>
+    </row>
+    <row r="137" spans="1:37" s="22" customFormat="1" ht="22">
+      <c r="A137" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:37" s="5" customFormat="1" ht="22">
+      <c r="A138" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
+      <c r="U138" s="2"/>
+      <c r="V138" s="2"/>
+      <c r="W138" s="2"/>
+      <c r="X138" s="2"/>
+      <c r="Y138" s="2"/>
+      <c r="Z138" s="2"/>
+      <c r="AA138" s="2"/>
+      <c r="AB138" s="2"/>
+      <c r="AC138" s="2"/>
+      <c r="AD138" s="2"/>
+      <c r="AE138" s="2"/>
+      <c r="AF138" s="2"/>
+      <c r="AG138" s="2"/>
+      <c r="AH138" s="2"/>
+      <c r="AI138" s="2"/>
+      <c r="AJ138" s="2"/>
+      <c r="AK138" s="2"/>
+    </row>
+    <row r="139" spans="1:37" s="4" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A139" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B139" s="11"/>
+      <c r="C139" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+      <c r="T139" s="2"/>
+      <c r="U139" s="2"/>
+      <c r="V139" s="2"/>
+      <c r="W139" s="2"/>
+      <c r="X139" s="2"/>
+      <c r="Y139" s="2"/>
+      <c r="Z139" s="2"/>
+      <c r="AA139" s="2"/>
+      <c r="AB139" s="2"/>
+      <c r="AC139" s="2"/>
+      <c r="AD139" s="2"/>
+      <c r="AE139" s="2"/>
+      <c r="AF139" s="2"/>
+      <c r="AG139" s="2"/>
+      <c r="AH139" s="2"/>
+      <c r="AI139" s="2"/>
+      <c r="AJ139" s="2"/>
+      <c r="AK139" s="2"/>
+    </row>
+    <row r="140" spans="1:37" s="5" customFormat="1" ht="22">
+      <c r="A140" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F140" s="11"/>
+      <c r="G140" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="2"/>
+      <c r="U140" s="2"/>
+      <c r="V140" s="2"/>
+      <c r="W140" s="2"/>
+      <c r="X140" s="2"/>
+      <c r="Y140" s="2"/>
+      <c r="Z140" s="2"/>
+      <c r="AA140" s="2"/>
+      <c r="AB140" s="2"/>
+      <c r="AC140" s="2"/>
+      <c r="AD140" s="2"/>
+      <c r="AE140" s="2"/>
+      <c r="AF140" s="2"/>
+      <c r="AG140" s="2"/>
+      <c r="AH140" s="2"/>
+      <c r="AI140" s="2"/>
+      <c r="AJ140" s="2"/>
+      <c r="AK140" s="2"/>
+    </row>
+    <row r="141" spans="1:37" s="5" customFormat="1" ht="22">
+      <c r="A141" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="8" t="s">
+      <c r="B141" s="11"/>
+      <c r="C141" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E141" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F127" s="11"/>
-      <c r="G127" s="1" t="s">
+      <c r="F141" s="11"/>
+      <c r="G141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
-      <c r="T127" s="2"/>
-      <c r="U127" s="2"/>
-      <c r="V127" s="2"/>
-      <c r="W127" s="2"/>
-      <c r="X127" s="2"/>
-      <c r="Y127" s="2"/>
-      <c r="Z127" s="2"/>
-      <c r="AA127" s="2"/>
-      <c r="AB127" s="2"/>
-      <c r="AC127" s="2"/>
-      <c r="AD127" s="2"/>
-      <c r="AE127" s="2"/>
-      <c r="AF127" s="2"/>
-      <c r="AG127" s="2"/>
-      <c r="AH127" s="2"/>
-      <c r="AI127" s="2"/>
-      <c r="AJ127" s="2"/>
-      <c r="AK127" s="2"/>
-    </row>
-    <row r="128" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="13"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="2"/>
-      <c r="S128" s="2"/>
-      <c r="T128" s="2"/>
-      <c r="U128" s="2"/>
-      <c r="V128" s="2"/>
-      <c r="W128" s="2"/>
-      <c r="X128" s="2"/>
-      <c r="Y128" s="2"/>
-      <c r="Z128" s="2"/>
-      <c r="AA128" s="2"/>
-      <c r="AB128" s="2"/>
-      <c r="AC128" s="2"/>
-      <c r="AD128" s="2"/>
-      <c r="AE128" s="2"/>
-      <c r="AF128" s="2"/>
-      <c r="AG128" s="2"/>
-      <c r="AH128" s="2"/>
-      <c r="AI128" s="2"/>
-      <c r="AJ128" s="2"/>
-      <c r="AK128" s="2"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="13"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="13"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C131" s="8"/>
-      <c r="G131" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2"/>
+      <c r="V141" s="2"/>
+      <c r="W141" s="2"/>
+      <c r="X141" s="2"/>
+      <c r="Y141" s="2"/>
+      <c r="Z141" s="2"/>
+      <c r="AA141" s="2"/>
+      <c r="AB141" s="2"/>
+      <c r="AC141" s="2"/>
+      <c r="AD141" s="2"/>
+      <c r="AE141" s="2"/>
+      <c r="AF141" s="2"/>
+      <c r="AG141" s="2"/>
+      <c r="AH141" s="2"/>
+      <c r="AI141" s="2"/>
+      <c r="AJ141" s="2"/>
+      <c r="AK141" s="2"/>
+    </row>
+    <row r="142" spans="1:37" s="5" customFormat="1">
+      <c r="A142" s="13"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2"/>
+      <c r="V142" s="2"/>
+      <c r="W142" s="2"/>
+      <c r="X142" s="2"/>
+      <c r="Y142" s="2"/>
+      <c r="Z142" s="2"/>
+      <c r="AA142" s="2"/>
+      <c r="AB142" s="2"/>
+      <c r="AC142" s="2"/>
+      <c r="AD142" s="2"/>
+      <c r="AE142" s="2"/>
+      <c r="AF142" s="2"/>
+      <c r="AG142" s="2"/>
+      <c r="AH142" s="2"/>
+      <c r="AI142" s="2"/>
+      <c r="AJ142" s="2"/>
+      <c r="AK142" s="2"/>
+    </row>
+    <row r="143" spans="1:37">
+      <c r="A143" s="13"/>
+    </row>
+    <row r="144" spans="1:37">
+      <c r="A144" s="13"/>
+    </row>
+    <row r="145" spans="3:7">
+      <c r="C145" s="8"/>
+      <c r="G145" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/org.panorama-research.mobstr.requirements/mobstr-requirements.xlsx
+++ b/org.panorama-research.mobstr.requirements/mobstr-requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janste/git/waters-challenge-2019/org.panorama-research.mobstr.requirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Integrated Safety Analysis\Additional Artifacts\org.panorama-research.mobstr.requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B541882-08AE-6647-A23C-791A9627ECC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B70E90-ECE1-4FC5-AAFE-61658929C5A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="3040" windowWidth="28040" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8325" yWindow="3045" windowWidth="28035" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -30,39 +30,6 @@
     <author>Jan Steffen Becker</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jan Steffen Becker:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>This is inconsistent with mapping of S1.1.2 which is mapped to the Lidar Grabber --&gt; Sub-requirements shall be mapped to sub-components. Better map to Object Detection?</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
@@ -115,620 +82,620 @@
     <t>The system shall be able to distinguish vulnerable road users and other objects.</t>
   </si>
   <si>
+    <t>The system shall inform the driver about sensor failures.</t>
+  </si>
+  <si>
+    <t>The system shall detect road boundaries and the shape of each lane.</t>
+  </si>
+  <si>
+    <t>The system shall have more than one sensor used to identify the road lane.</t>
+  </si>
+  <si>
+    <t>The system shall drive through a pre-determined set of way points.</t>
+  </si>
+  <si>
+    <t>The system shall define a trajectory through a set of way points.</t>
+  </si>
+  <si>
+    <t>The system shall update the trajectory whenever the way points change or the vehicle has left the trajectory.</t>
+  </si>
+  <si>
+    <t>The system shall follow the defined trajectory.</t>
+  </si>
+  <si>
+    <t>The system shall translate the trajectory into vehicle commands.</t>
+  </si>
+  <si>
+    <t>The system shall calculate a speed profile to follow the trajectory.</t>
+  </si>
+  <si>
+    <t>The system shall control the vehicle using the calculated vehicle commands.</t>
+  </si>
+  <si>
+    <t>The system shall follow the pre-defined speed profile when moving in the defined trajectory.</t>
+  </si>
+  <si>
+    <t>The system shall be aware of its current position at all times.</t>
+  </si>
+  <si>
+    <t>The system shall do a sanity check on the calculated speed profile to avoid unintended acceleration.</t>
+  </si>
+  <si>
+    <t>The system shall identify when the camera has failed.</t>
+  </si>
+  <si>
+    <t>The system shall identify when the lidar sensor has failed.</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>]0,350] ms</t>
+  </si>
+  <si>
+    <t>]0,50] ms</t>
+  </si>
+  <si>
+    <t>The system shall do a sanity check on the calculated speed profile to avoid leaving the road unintentionally.</t>
+  </si>
+  <si>
+    <t>]0,100] ms</t>
+  </si>
+  <si>
+    <t>every 15 ms</t>
+  </si>
+  <si>
+    <t>every 5 ms</t>
+  </si>
+  <si>
+    <t>The system shall prevent unintended leaving of the road.</t>
+  </si>
+  <si>
+    <t>The system shall warn the driver in case of controller failures.</t>
+  </si>
+  <si>
+    <t>Sensor Fusion</t>
+  </si>
+  <si>
+    <t>(skipped at this point)</t>
+  </si>
+  <si>
+    <t>Object Detection</t>
+  </si>
+  <si>
+    <t>Lidar Grabber</t>
+  </si>
+  <si>
+    <t>The system shall be able to determine the distance between the vehicle and the objects on or close to the trajectory.</t>
+  </si>
+  <si>
+    <t>Lane Detection</t>
+  </si>
+  <si>
+    <t>The system shall detect other vehicles or obstacles on adjacent lane.</t>
+  </si>
+  <si>
+    <t>Is the "Sensor Fusion" component maybe a subcomponent of the "Path Planner"?</t>
+  </si>
+  <si>
+    <t>Path Planner</t>
+  </si>
+  <si>
+    <t>Image Grabber</t>
+  </si>
+  <si>
+    <t>(all components)</t>
+  </si>
+  <si>
+    <t>The system shall calculate the correct steering angle to follow the trajectory.</t>
+  </si>
+  <si>
+    <t>The operating principle is based on a target point placed on the trajectory to be followed at a distance that varies from the vehicle depending on the speed, the angle between the vehicle and the target determines the steering angle of the vehicle.</t>
+  </si>
+  <si>
+    <t>Localization</t>
+  </si>
+  <si>
+    <t>Sensor Fusion, Path Planner</t>
+  </si>
+  <si>
+    <t>Hazard</t>
+  </si>
+  <si>
+    <t>H-1</t>
+  </si>
+  <si>
+    <t>H-2</t>
+  </si>
+  <si>
+    <t>H-3</t>
+  </si>
+  <si>
+    <t>H-4</t>
+  </si>
+  <si>
+    <t>SG-2</t>
+  </si>
+  <si>
+    <t>SG-3</t>
+  </si>
+  <si>
+    <t>SG-4</t>
+  </si>
+  <si>
+    <t>Safety (monitoring)</t>
+  </si>
+  <si>
+    <t>Safety (redundancy)</t>
+  </si>
+  <si>
+    <t>Safety (warning)</t>
+  </si>
+  <si>
+    <t>Time Interval</t>
+  </si>
+  <si>
+    <t>Safe State</t>
+  </si>
+  <si>
+    <t>Allocated on Component</t>
+  </si>
+  <si>
+    <t>SG-1</t>
+  </si>
+  <si>
+    <t>The system shall identify sensor failures.</t>
+  </si>
+  <si>
+    <t>H-5</t>
+  </si>
+  <si>
+    <t>The system shall be able to detect obstacles.</t>
+  </si>
+  <si>
+    <t>The system shall detect all obstacles.</t>
+  </si>
+  <si>
+    <t>SG-5</t>
+  </si>
+  <si>
+    <t>The system shall identify controller failures.</t>
+  </si>
+  <si>
+    <t>The system shall mitigate controller failures.</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>The system shall identify failures of the steering actuators.</t>
+  </si>
+  <si>
+    <t>The system shall mitigate failures of the steering actuators.</t>
+  </si>
+  <si>
+    <t>The system shall detect objects by using a combination of different sensors.</t>
+  </si>
+  <si>
+    <t>The system shall detect when the steering commands are not on time (tbd).</t>
+  </si>
+  <si>
+    <t>The system shall mitigate sensor failures.</t>
+  </si>
+  <si>
+    <t>Safety goal</t>
+  </si>
+  <si>
+    <t>Safety (failure identification)</t>
+  </si>
+  <si>
+    <t>Safety (failure mitigation)</t>
+  </si>
+  <si>
+    <t>The system shall identify failures of the motor control.</t>
+  </si>
+  <si>
+    <t>The system shall mitigate failures of the motor control.</t>
+  </si>
+  <si>
+    <t>(external system)</t>
+  </si>
+  <si>
+    <t>The system shall prevent unintended acceleration.</t>
+  </si>
+  <si>
+    <t>The system shall perform an avoidance maneuver (i.e., a lane change) to avoid collisions with obstacles, if safe.</t>
+  </si>
+  <si>
+    <t>The system shall prevent omitting required avoidance maneuvers.</t>
+  </si>
+  <si>
+    <t>SR-1.1</t>
+  </si>
+  <si>
+    <t>SR-1.1.1</t>
+  </si>
+  <si>
+    <t>SR-1.1.2</t>
+  </si>
+  <si>
+    <t>SR-1.1.3</t>
+  </si>
+  <si>
+    <t>SR-1.2</t>
+  </si>
+  <si>
+    <t>SR-1.2.1</t>
+  </si>
+  <si>
+    <t>SR-1.2.2</t>
+  </si>
+  <si>
+    <t>SR-1.3</t>
+  </si>
+  <si>
+    <t>SR-1.5</t>
+  </si>
+  <si>
+    <t>SR-1.6</t>
+  </si>
+  <si>
+    <t>SR-2.1</t>
+  </si>
+  <si>
+    <t>SR-2.2</t>
+  </si>
+  <si>
+    <t>SR-2.3</t>
+  </si>
+  <si>
+    <t>SR-2.4</t>
+  </si>
+  <si>
+    <t>SR-2.4.1</t>
+  </si>
+  <si>
+    <t>SR-2.5</t>
+  </si>
+  <si>
+    <t>SR-2.6</t>
+  </si>
+  <si>
+    <t>SR-2.7</t>
+  </si>
+  <si>
+    <t>SR-2.8</t>
+  </si>
+  <si>
+    <t>SR-3.1</t>
+  </si>
+  <si>
+    <t>SR-3.2</t>
+  </si>
+  <si>
+    <t>SR-3.3</t>
+  </si>
+  <si>
+    <t>SR-3.4</t>
+  </si>
+  <si>
+    <t>SR-3.5</t>
+  </si>
+  <si>
+    <t>SR-3.6</t>
+  </si>
+  <si>
+    <t>SR-3.6.1</t>
+  </si>
+  <si>
+    <t>SR-3.6.2</t>
+  </si>
+  <si>
+    <t>SR-4.1</t>
+  </si>
+  <si>
+    <t>SR-4.2</t>
+  </si>
+  <si>
+    <t>SR-4.3</t>
+  </si>
+  <si>
+    <t>SR-4.3.1</t>
+  </si>
+  <si>
+    <t>SR-4.4</t>
+  </si>
+  <si>
+    <t>SR-4.4.1</t>
+  </si>
+  <si>
+    <t>SR-4.5</t>
+  </si>
+  <si>
+    <t>SR-4.6</t>
+  </si>
+  <si>
+    <t>SR-5.1</t>
+  </si>
+  <si>
+    <t>SR-5.1.1</t>
+  </si>
+  <si>
+    <t>SR-5.2</t>
+  </si>
+  <si>
+    <t>SR-5.2.1</t>
+  </si>
+  <si>
+    <t>SR-5.2.2</t>
+  </si>
+  <si>
+    <t>SR-5.3</t>
+  </si>
+  <si>
+    <t>SR-5.3.1</t>
+  </si>
+  <si>
+    <t>SR-5.4</t>
+  </si>
+  <si>
+    <t>SR-5.4.1</t>
+  </si>
+  <si>
+    <t>SR-5.5</t>
+  </si>
+  <si>
+    <t>SR-5.6</t>
+  </si>
+  <si>
+    <t>SR-5.7</t>
+  </si>
+  <si>
+    <t>SR-5.8</t>
+  </si>
+  <si>
+    <t>SR-5.9</t>
+  </si>
+  <si>
+    <t>SR-5.10</t>
+  </si>
+  <si>
+    <t>FR-6</t>
+  </si>
+  <si>
+    <t>FR-6.1</t>
+  </si>
+  <si>
+    <t>FR-6.2</t>
+  </si>
+  <si>
+    <t>FR-6.3</t>
+  </si>
+  <si>
+    <t>FR-6.4</t>
+  </si>
+  <si>
+    <t>FR-6.4.1</t>
+  </si>
+  <si>
+    <t>FR-6.4.2</t>
+  </si>
+  <si>
+    <t>FR-6.5</t>
+  </si>
+  <si>
+    <t>FR-6.6</t>
+  </si>
+  <si>
+    <t>FR-6.7</t>
+  </si>
+  <si>
+    <t>FR-6.8</t>
+  </si>
+  <si>
+    <t>FR-6.9</t>
+  </si>
+  <si>
+    <t>FR-6.10</t>
+  </si>
+  <si>
+    <t>FR-7</t>
+  </si>
+  <si>
+    <t>FR-7.1</t>
+  </si>
+  <si>
+    <t>FR-7.2</t>
+  </si>
+  <si>
+    <t>FR-7.2.1</t>
+  </si>
+  <si>
+    <t>FR-7.2.2</t>
+  </si>
+  <si>
+    <t>FR-8</t>
+  </si>
+  <si>
+    <t>FR-8.1</t>
+  </si>
+  <si>
+    <t>FR-8.2</t>
+  </si>
+  <si>
+    <t>FR-8.3</t>
+  </si>
+  <si>
+    <t>FR-8.4</t>
+  </si>
+  <si>
+    <t>SR-1.4</t>
+  </si>
+  <si>
+    <t>The system shall prevent omitting required braking maneuvers.</t>
+  </si>
+  <si>
+    <t>The system shall identify failures of the brake actuators.</t>
+  </si>
+  <si>
+    <t>The system shall mitigate failures of the brake actuators.</t>
+  </si>
+  <si>
+    <t>The system shall prevent unintended braking.</t>
+  </si>
+  <si>
+    <t>The system shall have a redundant braking system.</t>
+  </si>
+  <si>
+    <t>The system shall be aware of key vehicle information such as steer/wheel/brake/acceleration status at any point in time.</t>
+  </si>
+  <si>
+    <t>The system shall perform a braking maneuver to avoid collisions with obstacles.</t>
+  </si>
+  <si>
+    <t>The system shall provide longitudinal control value updates every 15 ms (tbc).</t>
+  </si>
+  <si>
+    <t>The system shall provide lateral control value updates every 5 ms (tbc).</t>
+  </si>
+  <si>
+    <t>The system shall detect obstacles in time, i.e. within 350 ms (tbc).</t>
+  </si>
+  <si>
+    <t>The system shall start braking within 50 ms (tbc) after the obstacle is detected within a dangerous zone (tbd).</t>
+  </si>
+  <si>
+    <t>The system shall start switch road lanes within 100 ms (tbc) after an obstacle is detected within a dangerous zone (tbd).</t>
+  </si>
+  <si>
+    <t>The system shall ensure that steering commands are provided within 50 ms (tbc).</t>
+  </si>
+  <si>
+    <t>Driver Warnings</t>
+  </si>
+  <si>
+    <t>FR-7.2.3</t>
+  </si>
+  <si>
+    <t>FR-7.2.4</t>
+  </si>
+  <si>
+    <t>FR-7.2.5</t>
+  </si>
+  <si>
+    <t>The system shall use more than one sensor used to identify obstacles.</t>
+  </si>
+  <si>
+    <t>[Reference to SR-1.1 including sub-requirements]</t>
+  </si>
+  <si>
+    <t>[Same as SR-1.1]</t>
+  </si>
+  <si>
+    <t>[Same as SR-1.2]</t>
+  </si>
+  <si>
+    <t>[Reference to SR-1.2 including sub-requirements]</t>
+  </si>
+  <si>
+    <t>SR-1.3.1</t>
+  </si>
+  <si>
+    <t>The system shall identify when the path planner has failed.</t>
+  </si>
+  <si>
+    <t>SR-1.3.2</t>
+  </si>
+  <si>
+    <t>The system shall identify when the object detection has failed.</t>
+  </si>
+  <si>
+    <t>SR-1.3.3</t>
+  </si>
+  <si>
+    <t>The system shall identify when the sensor fusion has failed.</t>
+  </si>
+  <si>
+    <t>SR-2.5.1</t>
+  </si>
+  <si>
+    <t>The system shall identify when the steering actuators do not engage.</t>
+  </si>
+  <si>
+    <t>SR-2.7.1</t>
+  </si>
+  <si>
+    <t>The system shall identify when the brake actuators do not engage.</t>
+  </si>
+  <si>
+    <t>SR-2.4.2</t>
+  </si>
+  <si>
+    <t>The system shall detect when the steering commands are out of reasonable bounds (tbd).</t>
+  </si>
+  <si>
+    <t>SR-2.5.2</t>
+  </si>
+  <si>
+    <t>The system shall identify when the steering actuators over- or undershoot the steering commands.</t>
+  </si>
+  <si>
+    <t>SR-4.3.2</t>
+  </si>
+  <si>
+    <t>The system shall do a sanity check on the identified objects to avoid unintended acceleration.</t>
+  </si>
+  <si>
+    <t>SR-4.3.3</t>
+  </si>
+  <si>
+    <t>The system shall do a sanity check on the current location to avoid unintended acceleration.</t>
+  </si>
+  <si>
+    <t>SR-4.3.4</t>
+  </si>
+  <si>
+    <t>The system shall do a sanity check on the fused sensor data to avoid unintended acceleration.</t>
+  </si>
+  <si>
+    <t>SR-4.3.3.1</t>
+  </si>
+  <si>
+    <t>The system shall check whether a change in location is attainable at the current speed.</t>
+  </si>
+  <si>
+    <t>SR-4.3.3.2</t>
+  </si>
+  <si>
+    <t>The system shall check whether a change in location is attainable with the current trajectory.</t>
+  </si>
+  <si>
+    <t>The system shall detect when the steering commands will bring the vehicle outside of road boundaries.</t>
+  </si>
+  <si>
+    <t>SR-5.3.2</t>
+  </si>
+  <si>
+    <t>SR-5.3.3</t>
+  </si>
+  <si>
+    <t>The system shall detect when the road lane cannot be identified unambiguously.</t>
+  </si>
+  <si>
+    <t>SR-1.2.3</t>
+  </si>
+  <si>
     <t>The system shall use only information from working sensors.</t>
   </si>
   <si>
-    <t>The system shall inform the driver about sensor failures.</t>
-  </si>
-  <si>
-    <t>The system shall detect road boundaries and the shape of each lane.</t>
-  </si>
-  <si>
-    <t>The system shall have more than one sensor used to identify the road lane.</t>
-  </si>
-  <si>
-    <t>The system shall drive through a pre-determined set of way points.</t>
-  </si>
-  <si>
-    <t>The system shall define a trajectory through a set of way points.</t>
-  </si>
-  <si>
-    <t>The system shall update the trajectory whenever the way points change or the vehicle has left the trajectory.</t>
-  </si>
-  <si>
-    <t>The system shall follow the defined trajectory.</t>
-  </si>
-  <si>
-    <t>The system shall translate the trajectory into vehicle commands.</t>
-  </si>
-  <si>
-    <t>The system shall calculate a speed profile to follow the trajectory.</t>
-  </si>
-  <si>
-    <t>The system shall control the vehicle using the calculated vehicle commands.</t>
-  </si>
-  <si>
-    <t>The system shall follow the pre-defined speed profile when moving in the defined trajectory.</t>
-  </si>
-  <si>
-    <t>The system shall be aware of its current position at all times.</t>
-  </si>
-  <si>
-    <t>The system shall do a sanity check on the calculated speed profile to avoid unintended acceleration.</t>
-  </si>
-  <si>
-    <t>The system shall identify when the camera has failed.</t>
-  </si>
-  <si>
-    <t>The system shall identify when the lidar sensor has failed.</t>
-  </si>
-  <si>
-    <t>Functional</t>
-  </si>
-  <si>
-    <t>]0,350] ms</t>
-  </si>
-  <si>
-    <t>]0,50] ms</t>
-  </si>
-  <si>
-    <t>The system shall do a sanity check on the calculated speed profile to avoid leaving the road unintentionally.</t>
-  </si>
-  <si>
-    <t>]0,100] ms</t>
-  </si>
-  <si>
-    <t>every 15 ms</t>
-  </si>
-  <si>
-    <t>every 5 ms</t>
-  </si>
-  <si>
-    <t>The system shall prevent unintended leaving of the road.</t>
-  </si>
-  <si>
-    <t>The system shall warn the driver in case of controller failures.</t>
-  </si>
-  <si>
-    <t>Sensor Fusion</t>
-  </si>
-  <si>
-    <t>(skipped at this point)</t>
-  </si>
-  <si>
-    <t>Object Detection</t>
-  </si>
-  <si>
-    <t>Lidar Grabber</t>
-  </si>
-  <si>
-    <t>The system shall be able to determine the distance between the vehicle and the objects on or close to the trajectory.</t>
-  </si>
-  <si>
-    <t>Lane Detection</t>
-  </si>
-  <si>
-    <t>The system shall detect other vehicles or obstacles on adjacent lane.</t>
-  </si>
-  <si>
-    <t>Is the "Sensor Fusion" component maybe a subcomponent of the "Path Planner"?</t>
-  </si>
-  <si>
-    <t>Path Planner</t>
-  </si>
-  <si>
-    <t>Image Grabber</t>
-  </si>
-  <si>
-    <t>(all components)</t>
-  </si>
-  <si>
-    <t>The system shall calculate the correct steering angle to follow the trajectory.</t>
-  </si>
-  <si>
-    <t>The operating principle is based on a target point placed on the trajectory to be followed at a distance that varies from the vehicle depending on the speed, the angle between the vehicle and the target determines the steering angle of the vehicle.</t>
-  </si>
-  <si>
-    <t>Localization</t>
-  </si>
-  <si>
-    <t>Sensor Fusion, Path Planner</t>
-  </si>
-  <si>
-    <t>Hazard</t>
-  </si>
-  <si>
-    <t>H-1</t>
-  </si>
-  <si>
-    <t>H-2</t>
-  </si>
-  <si>
-    <t>H-3</t>
-  </si>
-  <si>
-    <t>H-4</t>
-  </si>
-  <si>
-    <t>SG-2</t>
-  </si>
-  <si>
-    <t>SG-3</t>
-  </si>
-  <si>
-    <t>SG-4</t>
-  </si>
-  <si>
-    <t>Safety (monitoring)</t>
-  </si>
-  <si>
-    <t>Safety (redundancy)</t>
-  </si>
-  <si>
-    <t>Safety (warning)</t>
-  </si>
-  <si>
     <t>Safety (check)</t>
-  </si>
-  <si>
-    <t>Time Interval</t>
-  </si>
-  <si>
-    <t>Safe State</t>
-  </si>
-  <si>
-    <t>Allocated on Component</t>
-  </si>
-  <si>
-    <t>SG-1</t>
-  </si>
-  <si>
-    <t>The system shall identify sensor failures.</t>
-  </si>
-  <si>
-    <t>H-5</t>
-  </si>
-  <si>
-    <t>The system shall be able to detect obstacles.</t>
-  </si>
-  <si>
-    <t>The system shall detect all obstacles.</t>
-  </si>
-  <si>
-    <t>SG-5</t>
-  </si>
-  <si>
-    <t>The system shall identify controller failures.</t>
-  </si>
-  <si>
-    <t>The system shall mitigate controller failures.</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>The system shall identify failures of the steering actuators.</t>
-  </si>
-  <si>
-    <t>The system shall mitigate failures of the steering actuators.</t>
-  </si>
-  <si>
-    <t>The system shall detect objects by using a combination of different sensors.</t>
-  </si>
-  <si>
-    <t>The system shall detect when the steering commands are not on time (tbd).</t>
-  </si>
-  <si>
-    <t>The system shall mitigate sensor failures.</t>
-  </si>
-  <si>
-    <t>Safety goal</t>
-  </si>
-  <si>
-    <t>Safety (failure identification)</t>
-  </si>
-  <si>
-    <t>Safety (failure mitigation)</t>
-  </si>
-  <si>
-    <t>The system shall identify failures of the motor control.</t>
-  </si>
-  <si>
-    <t>The system shall mitigate failures of the motor control.</t>
-  </si>
-  <si>
-    <t>(external system)</t>
-  </si>
-  <si>
-    <t>The system shall prevent unintended acceleration.</t>
-  </si>
-  <si>
-    <t>The system shall perform an avoidance maneuver (i.e., a lane change) to avoid collisions with obstacles, if safe.</t>
-  </si>
-  <si>
-    <t>The system shall prevent omitting required avoidance maneuvers.</t>
-  </si>
-  <si>
-    <t>SR-1.1</t>
-  </si>
-  <si>
-    <t>SR-1.1.1</t>
-  </si>
-  <si>
-    <t>SR-1.1.2</t>
-  </si>
-  <si>
-    <t>SR-1.1.3</t>
-  </si>
-  <si>
-    <t>SR-1.1.4</t>
-  </si>
-  <si>
-    <t>SR-1.2</t>
-  </si>
-  <si>
-    <t>SR-1.2.1</t>
-  </si>
-  <si>
-    <t>SR-1.2.2</t>
-  </si>
-  <si>
-    <t>SR-1.3</t>
-  </si>
-  <si>
-    <t>SR-1.5</t>
-  </si>
-  <si>
-    <t>SR-1.6</t>
-  </si>
-  <si>
-    <t>SR-2.1</t>
-  </si>
-  <si>
-    <t>SR-2.2</t>
-  </si>
-  <si>
-    <t>SR-2.3</t>
-  </si>
-  <si>
-    <t>SR-2.4</t>
-  </si>
-  <si>
-    <t>SR-2.4.1</t>
-  </si>
-  <si>
-    <t>SR-2.5</t>
-  </si>
-  <si>
-    <t>SR-2.6</t>
-  </si>
-  <si>
-    <t>SR-2.7</t>
-  </si>
-  <si>
-    <t>SR-2.8</t>
-  </si>
-  <si>
-    <t>SR-3.1</t>
-  </si>
-  <si>
-    <t>SR-3.2</t>
-  </si>
-  <si>
-    <t>SR-3.3</t>
-  </si>
-  <si>
-    <t>SR-3.4</t>
-  </si>
-  <si>
-    <t>SR-3.5</t>
-  </si>
-  <si>
-    <t>SR-3.6</t>
-  </si>
-  <si>
-    <t>SR-3.6.1</t>
-  </si>
-  <si>
-    <t>SR-3.6.2</t>
-  </si>
-  <si>
-    <t>SR-4.1</t>
-  </si>
-  <si>
-    <t>SR-4.2</t>
-  </si>
-  <si>
-    <t>SR-4.3</t>
-  </si>
-  <si>
-    <t>SR-4.3.1</t>
-  </si>
-  <si>
-    <t>SR-4.4</t>
-  </si>
-  <si>
-    <t>SR-4.4.1</t>
-  </si>
-  <si>
-    <t>SR-4.5</t>
-  </si>
-  <si>
-    <t>SR-4.6</t>
-  </si>
-  <si>
-    <t>SR-5.1</t>
-  </si>
-  <si>
-    <t>SR-5.1.1</t>
-  </si>
-  <si>
-    <t>SR-5.2</t>
-  </si>
-  <si>
-    <t>SR-5.2.1</t>
-  </si>
-  <si>
-    <t>SR-5.2.2</t>
-  </si>
-  <si>
-    <t>SR-5.3</t>
-  </si>
-  <si>
-    <t>SR-5.3.1</t>
-  </si>
-  <si>
-    <t>SR-5.4</t>
-  </si>
-  <si>
-    <t>SR-5.4.1</t>
-  </si>
-  <si>
-    <t>SR-5.5</t>
-  </si>
-  <si>
-    <t>SR-5.6</t>
-  </si>
-  <si>
-    <t>SR-5.7</t>
-  </si>
-  <si>
-    <t>SR-5.8</t>
-  </si>
-  <si>
-    <t>SR-5.9</t>
-  </si>
-  <si>
-    <t>SR-5.10</t>
-  </si>
-  <si>
-    <t>FR-6</t>
-  </si>
-  <si>
-    <t>FR-6.1</t>
-  </si>
-  <si>
-    <t>FR-6.2</t>
-  </si>
-  <si>
-    <t>FR-6.3</t>
-  </si>
-  <si>
-    <t>FR-6.4</t>
-  </si>
-  <si>
-    <t>FR-6.4.1</t>
-  </si>
-  <si>
-    <t>FR-6.4.2</t>
-  </si>
-  <si>
-    <t>FR-6.5</t>
-  </si>
-  <si>
-    <t>FR-6.6</t>
-  </si>
-  <si>
-    <t>FR-6.7</t>
-  </si>
-  <si>
-    <t>FR-6.8</t>
-  </si>
-  <si>
-    <t>FR-6.9</t>
-  </si>
-  <si>
-    <t>FR-6.10</t>
-  </si>
-  <si>
-    <t>FR-7</t>
-  </si>
-  <si>
-    <t>FR-7.1</t>
-  </si>
-  <si>
-    <t>FR-7.2</t>
-  </si>
-  <si>
-    <t>FR-7.2.1</t>
-  </si>
-  <si>
-    <t>FR-7.2.2</t>
-  </si>
-  <si>
-    <t>FR-8</t>
-  </si>
-  <si>
-    <t>FR-8.1</t>
-  </si>
-  <si>
-    <t>FR-8.2</t>
-  </si>
-  <si>
-    <t>FR-8.3</t>
-  </si>
-  <si>
-    <t>FR-8.4</t>
-  </si>
-  <si>
-    <t>SR-1.4</t>
-  </si>
-  <si>
-    <t>The system shall prevent omitting required braking maneuvers.</t>
-  </si>
-  <si>
-    <t>The system shall identify failures of the brake actuators.</t>
-  </si>
-  <si>
-    <t>The system shall mitigate failures of the brake actuators.</t>
-  </si>
-  <si>
-    <t>The system shall prevent unintended braking.</t>
-  </si>
-  <si>
-    <t>The system shall have a redundant braking system.</t>
-  </si>
-  <si>
-    <t>The system shall be aware of key vehicle information such as steer/wheel/brake/acceleration status at any point in time.</t>
-  </si>
-  <si>
-    <t>The system shall perform a braking maneuver to avoid collisions with obstacles.</t>
-  </si>
-  <si>
-    <t>The system shall provide longitudinal control value updates every 15 ms (tbc).</t>
-  </si>
-  <si>
-    <t>The system shall provide lateral control value updates every 5 ms (tbc).</t>
-  </si>
-  <si>
-    <t>The system shall detect obstacles in time, i.e. within 350 ms (tbc).</t>
-  </si>
-  <si>
-    <t>The system shall start braking within 50 ms (tbc) after the obstacle is detected within a dangerous zone (tbd).</t>
-  </si>
-  <si>
-    <t>The system shall start switch road lanes within 100 ms (tbc) after an obstacle is detected within a dangerous zone (tbd).</t>
-  </si>
-  <si>
-    <t>The system shall ensure that steering commands are provided within 50 ms (tbc).</t>
-  </si>
-  <si>
-    <t>Driver Warnings</t>
-  </si>
-  <si>
-    <t>FR-7.2.3</t>
-  </si>
-  <si>
-    <t>FR-7.2.4</t>
-  </si>
-  <si>
-    <t>FR-7.2.5</t>
-  </si>
-  <si>
-    <t>The system shall use more than one sensor used to identify obstacles.</t>
-  </si>
-  <si>
-    <t>[Reference to SR-1.1 including sub-requirements]</t>
-  </si>
-  <si>
-    <t>[Same as SR-1.1]</t>
-  </si>
-  <si>
-    <t>[Same as SR-1.2]</t>
-  </si>
-  <si>
-    <t>[Reference to SR-1.2 including sub-requirements]</t>
-  </si>
-  <si>
-    <t>SR-1.3.1</t>
-  </si>
-  <si>
-    <t>The system shall identify when the path planner has failed.</t>
-  </si>
-  <si>
-    <t>SR-1.3.2</t>
-  </si>
-  <si>
-    <t>The system shall identify when the object detection has failed.</t>
-  </si>
-  <si>
-    <t>SR-1.3.3</t>
-  </si>
-  <si>
-    <t>The system shall identify when the sensor fusion has failed.</t>
-  </si>
-  <si>
-    <t>SR-2.5.1</t>
-  </si>
-  <si>
-    <t>The system shall identify when the steering actuators do not engage.</t>
-  </si>
-  <si>
-    <t>SR-2.7.1</t>
-  </si>
-  <si>
-    <t>The system shall identify when the brake actuators do not engage.</t>
-  </si>
-  <si>
-    <t>SR-2.4.2</t>
-  </si>
-  <si>
-    <t>The system shall detect when the steering commands are out of reasonable bounds (tbd).</t>
-  </si>
-  <si>
-    <t>SR-2.5.2</t>
-  </si>
-  <si>
-    <t>The system shall identify when the steering actuators over- or undershoot the steering commands.</t>
-  </si>
-  <si>
-    <t>SR-4.3.2</t>
-  </si>
-  <si>
-    <t>The system shall do a sanity check on the identified objects to avoid unintended acceleration.</t>
-  </si>
-  <si>
-    <t>SR-4.3.3</t>
-  </si>
-  <si>
-    <t>The system shall do a sanity check on the current location to avoid unintended acceleration.</t>
-  </si>
-  <si>
-    <t>SR-4.3.4</t>
-  </si>
-  <si>
-    <t>The system shall do a sanity check on the fused sensor data to avoid unintended acceleration.</t>
-  </si>
-  <si>
-    <t>SR-4.3.3.1</t>
-  </si>
-  <si>
-    <t>The system shall check whether a change in location is attainable at the current speed.</t>
-  </si>
-  <si>
-    <t>SR-4.3.3.2</t>
-  </si>
-  <si>
-    <t>The system shall check whether a change in location is attainable with the current trajectory.</t>
-  </si>
-  <si>
-    <t>The system shall detect when the steering commands will bring the vehicle outside of road boundaries.</t>
-  </si>
-  <si>
-    <t>SR-5.3.2</t>
-  </si>
-  <si>
-    <t>SR-5.3.3</t>
-  </si>
-  <si>
-    <t>The system shall detect when the road lane cannot be identified unambiguously.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -770,17 +737,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="8">
@@ -839,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -927,9 +886,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -945,7 +908,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1243,29 +1206,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="148.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="148.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="98.1640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="20.125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="35.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="98.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" ht="22">
+    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>1</v>
@@ -1274,136 +1235,157 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" s="19" customFormat="1" ht="22">
-      <c r="A2" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="D3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="22">
-      <c r="A3" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="22">
-      <c r="A4" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="22">
-      <c r="A5" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="22">
-      <c r="A6" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>55</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="22">
-      <c r="A7" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" s="28" customFormat="1">
-      <c r="A8" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="F8" s="29"/>
-    </row>
-    <row r="9" spans="1:25" ht="22">
-      <c r="A9" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="12"/>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1424,248 +1406,248 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="22">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" s="28" customFormat="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:25" s="11" customFormat="1" ht="22">
+    <row r="13" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" s="11" customFormat="1" ht="22">
-      <c r="A14" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="11" customFormat="1" ht="22">
-      <c r="A15" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="11" customFormat="1" ht="22">
-      <c r="A16" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" s="29" customFormat="1">
-      <c r="A17" s="27" t="s">
-        <v>70</v>
-      </c>
       <c r="C17" s="31"/>
     </row>
-    <row r="18" spans="1:37" s="11" customFormat="1" ht="22">
+    <row r="18" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" s="29" customFormat="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="31"/>
     </row>
-    <row r="20" spans="1:37" s="11" customFormat="1" ht="22">
+    <row r="20" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="29" customFormat="1">
+    <row r="21" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:37" s="11" customFormat="1" ht="22">
+    <row r="22" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="29" customFormat="1">
+    <row r="23" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="31"/>
     </row>
-    <row r="24" spans="1:37" s="11" customFormat="1">
+    <row r="24" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="C24" s="26"/>
     </row>
-    <row r="25" spans="1:37" s="11" customFormat="1">
+    <row r="25" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="C25" s="26"/>
     </row>
-    <row r="26" spans="1:37" s="19" customFormat="1" ht="22">
+    <row r="26" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" ht="22">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="34"/>
       <c r="G27" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" ht="22">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="34"/>
       <c r="G28" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" s="11" customFormat="1" ht="22">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C29" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" s="29" customFormat="1">
-      <c r="A30" s="27" t="s">
-        <v>70</v>
-      </c>
       <c r="C30" s="31"/>
     </row>
-    <row r="31" spans="1:37" s="11" customFormat="1" ht="22">
+    <row r="31" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" s="5" customFormat="1" ht="22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="11"/>
@@ -1703,16 +1685,16 @@
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
     </row>
-    <row r="33" spans="1:37" s="5" customFormat="1" ht="22">
+    <row r="33" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="11"/>
@@ -1750,126 +1732,126 @@
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
     </row>
-    <row r="34" spans="1:37" s="29" customFormat="1">
+    <row r="34" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="31"/>
     </row>
-    <row r="35" spans="1:37" s="11" customFormat="1" ht="22">
+    <row r="35" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="11" customFormat="1" ht="22">
+    <row r="36" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="11" customFormat="1" ht="22">
+    <row r="37" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:37" s="29" customFormat="1">
+    <row r="38" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="31"/>
+    </row>
+    <row r="39" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="31"/>
-    </row>
-    <row r="39" spans="1:37" s="11" customFormat="1" ht="22">
-      <c r="A39" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>72</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:37" s="29" customFormat="1">
+    <row r="40" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" s="31"/>
     </row>
-    <row r="41" spans="1:37" s="11" customFormat="1" ht="22">
+    <row r="41" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:37" s="11" customFormat="1" ht="22">
+    <row r="42" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:37" s="28" customFormat="1">
+    <row r="43" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="30"/>
       <c r="F43" s="29"/>
     </row>
-    <row r="44" spans="1:37" s="5" customFormat="1" ht="22">
+    <row r="44" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="11"/>
@@ -1907,15 +1889,15 @@
       <c r="AJ44" s="2"/>
       <c r="AK44" s="2"/>
     </row>
-    <row r="45" spans="1:37" s="28" customFormat="1">
+    <row r="45" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" s="29"/>
       <c r="C45" s="30"/>
       <c r="F45" s="29"/>
     </row>
-    <row r="46" spans="1:37" s="5" customFormat="1">
+    <row r="46" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="11"/>
       <c r="C46" s="8"/>
@@ -1954,427 +1936,427 @@
       <c r="AJ46" s="2"/>
       <c r="AK46" s="2"/>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:37" s="7" customFormat="1" ht="22">
+    <row r="48" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F48" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" ht="22">
+    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E49" s="33"/>
       <c r="F49" s="34"/>
       <c r="G49" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" ht="22">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E50" s="33"/>
       <c r="F50" s="34"/>
       <c r="G50" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" ht="22">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="28" customFormat="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B52" s="29"/>
       <c r="C52" s="30"/>
       <c r="F52" s="29"/>
     </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" ht="22">
+    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="28" customFormat="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B54" s="29"/>
       <c r="C54" s="30"/>
       <c r="F54" s="29"/>
     </row>
-    <row r="55" spans="1:7" s="2" customFormat="1" ht="22">
+    <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="28" customFormat="1">
+    <row r="56" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B56" s="29"/>
       <c r="C56" s="30"/>
       <c r="F56" s="29"/>
     </row>
-    <row r="57" spans="1:7" s="2" customFormat="1" ht="22">
+    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="22">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="22">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
     </row>
-    <row r="62" spans="1:7" s="7" customFormat="1" ht="22">
+    <row r="62" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="22">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E63" s="33"/>
       <c r="F63" s="34"/>
       <c r="G63" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="22">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E64" s="33"/>
       <c r="F64" s="34"/>
       <c r="G64" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="22">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C65" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="27" t="s">
         <v>68</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="22">
-      <c r="A66" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="22">
-      <c r="A67" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="22">
-      <c r="A68" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="22">
-      <c r="A69" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="22">
-      <c r="A70" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="22">
-      <c r="A71" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="28" customFormat="1">
-      <c r="A72" s="27" t="s">
-        <v>70</v>
       </c>
       <c r="B72" s="29"/>
       <c r="C72" s="30"/>
       <c r="F72" s="29"/>
     </row>
-    <row r="73" spans="1:7" ht="22">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="28" customFormat="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B75" s="29"/>
       <c r="C75" s="30"/>
       <c r="F75" s="29"/>
     </row>
-    <row r="76" spans="1:7" s="2" customFormat="1" ht="22">
+    <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F76" s="11"/>
       <c r="G76" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="28" customFormat="1">
+    <row r="77" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B77" s="29"/>
       <c r="C77" s="30"/>
       <c r="F77" s="29"/>
     </row>
-    <row r="78" spans="1:7" s="2" customFormat="1" ht="22">
+    <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F78" s="11"/>
       <c r="G78" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="28" customFormat="1">
+    <row r="79" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B79" s="29"/>
       <c r="C79" s="30"/>
       <c r="F79" s="29"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C80" s="8"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:37" s="5" customFormat="1">
+    <row r="81" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
       <c r="B81" s="11"/>
       <c r="C81" s="8"/>
@@ -2413,54 +2395,54 @@
       <c r="AJ81" s="2"/>
       <c r="AK81" s="2"/>
     </row>
-    <row r="82" spans="1:37" s="7" customFormat="1" ht="22">
+    <row r="82" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F82" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:37" s="2" customFormat="1" ht="22">
+    <row r="83" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F83" s="11"/>
       <c r="G83" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:37" s="5" customFormat="1" ht="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="11"/>
       <c r="G84" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -2493,45 +2475,45 @@
       <c r="AJ84" s="2"/>
       <c r="AK84" s="2"/>
     </row>
-    <row r="85" spans="1:37" s="28" customFormat="1">
+    <row r="85" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B85" s="29"/>
       <c r="C85" s="30"/>
       <c r="F85" s="29"/>
     </row>
-    <row r="86" spans="1:37" s="2" customFormat="1" ht="22">
+    <row r="86" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F86" s="11"/>
       <c r="G86" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87" spans="1:37" s="5" customFormat="1" ht="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="11"/>
       <c r="G87" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -2564,21 +2546,21 @@
       <c r="AJ87" s="2"/>
       <c r="AK87" s="2"/>
     </row>
-    <row r="88" spans="1:37" s="5" customFormat="1" ht="22">
+    <row r="88" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="11"/>
       <c r="G88" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -2611,21 +2593,21 @@
       <c r="AJ88" s="2"/>
       <c r="AK88" s="2"/>
     </row>
-    <row r="89" spans="1:37" s="5" customFormat="1" ht="22">
+    <row r="89" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="11"/>
       <c r="G89" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -2658,38 +2640,38 @@
       <c r="AJ89" s="2"/>
       <c r="AK89" s="2"/>
     </row>
-    <row r="90" spans="1:37" s="28" customFormat="1">
+    <row r="90" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B90" s="29"/>
       <c r="C90" s="30"/>
       <c r="F90" s="29"/>
     </row>
-    <row r="91" spans="1:37" ht="22">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="1:37" s="5" customFormat="1" ht="22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="11"/>
@@ -2727,16 +2709,16 @@
       <c r="AJ92" s="2"/>
       <c r="AK92" s="2"/>
     </row>
-    <row r="93" spans="1:37" s="5" customFormat="1" ht="22">
+    <row r="93" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="11"/>
@@ -2774,43 +2756,43 @@
       <c r="AJ93" s="2"/>
       <c r="AK93" s="2"/>
     </row>
-    <row r="94" spans="1:37" s="28" customFormat="1">
+    <row r="94" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B94" s="29"/>
       <c r="C94" s="30"/>
       <c r="F94" s="29"/>
     </row>
-    <row r="95" spans="1:37" ht="22">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:37" s="5" customFormat="1" ht="22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="11"/>
       <c r="G96" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -2843,90 +2825,90 @@
       <c r="AJ96" s="2"/>
       <c r="AK96" s="2"/>
     </row>
-    <row r="97" spans="1:37" s="28" customFormat="1">
+    <row r="97" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B97" s="29"/>
       <c r="C97" s="30"/>
       <c r="F97" s="29"/>
     </row>
-    <row r="98" spans="1:37" ht="22">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:37" s="28" customFormat="1">
+    <row r="99" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B99" s="29"/>
       <c r="C99" s="30"/>
       <c r="F99" s="29"/>
     </row>
-    <row r="100" spans="1:37" ht="22">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:37" s="28" customFormat="1">
+    <row r="101" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B101" s="29"/>
       <c r="C101" s="30"/>
       <c r="F101" s="29"/>
     </row>
-    <row r="102" spans="1:37" ht="22">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:37" s="28" customFormat="1">
+    <row r="103" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B103" s="29"/>
       <c r="C103" s="30"/>
       <c r="F103" s="29"/>
     </row>
-    <row r="104" spans="1:37" s="5" customFormat="1" ht="22">
+    <row r="104" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="11"/>
@@ -2964,24 +2946,24 @@
       <c r="AJ104" s="2"/>
       <c r="AK104" s="2"/>
     </row>
-    <row r="105" spans="1:37" s="28" customFormat="1">
+    <row r="105" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B105" s="29"/>
       <c r="C105" s="30"/>
       <c r="F105" s="29"/>
     </row>
-    <row r="106" spans="1:37" s="5" customFormat="1" ht="22">
+    <row r="106" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="11"/>
@@ -3019,24 +3001,24 @@
       <c r="AJ106" s="2"/>
       <c r="AK106" s="2"/>
     </row>
-    <row r="107" spans="1:37" s="28" customFormat="1">
+    <row r="107" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B107" s="29"/>
       <c r="C107" s="30"/>
       <c r="F107" s="29"/>
     </row>
-    <row r="108" spans="1:37" s="5" customFormat="1" ht="22">
+    <row r="108" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="11"/>
@@ -3074,15 +3056,15 @@
       <c r="AJ108" s="2"/>
       <c r="AK108" s="2"/>
     </row>
-    <row r="109" spans="1:37" s="28" customFormat="1">
+    <row r="109" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B109" s="29"/>
       <c r="C109" s="30"/>
       <c r="F109" s="29"/>
     </row>
-    <row r="110" spans="1:37" s="5" customFormat="1">
+    <row r="110" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="13"/>
       <c r="B110" s="11"/>
       <c r="C110" s="8"/>
@@ -3121,7 +3103,7 @@
       <c r="AJ110" s="2"/>
       <c r="AK110" s="2"/>
     </row>
-    <row r="111" spans="1:37" s="5" customFormat="1">
+    <row r="111" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="13"/>
       <c r="B111" s="11"/>
       <c r="C111" s="8"/>
@@ -3160,197 +3142,197 @@
       <c r="AJ111" s="2"/>
       <c r="AK111" s="2"/>
     </row>
-    <row r="112" spans="1:37" s="22" customFormat="1" ht="22">
+    <row r="112" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A113" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A114" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A115" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C112" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" spans="1:37" ht="22">
-      <c r="A113" s="13" t="s">
+      <c r="C115" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A116" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C113" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="114" spans="1:37" ht="22">
-      <c r="A114" s="13" t="s">
+      <c r="C116" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A117" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="115" spans="1:37" ht="22">
-      <c r="A115" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="116" spans="1:37" ht="22">
-      <c r="A116" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="117" spans="1:37" ht="22">
-      <c r="A117" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="B117" s="25"/>
       <c r="C117" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="118" spans="1:37" ht="22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B118" s="25"/>
       <c r="C118" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="119" spans="1:37" ht="22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C119" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H119" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="1:37" ht="22">
+    </row>
+    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C120" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A121" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="121" spans="1:37" ht="22">
-      <c r="A121" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D121" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:37" ht="22">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C122" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A124" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="123" spans="1:37" ht="20.25" customHeight="1">
-      <c r="A123" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="124" spans="1:37" ht="22">
-      <c r="A124" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="D124" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="125" spans="1:37" s="5" customFormat="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="13"/>
       <c r="B125" s="11"/>
       <c r="C125" s="8"/>
@@ -3389,7 +3371,7 @@
       <c r="AJ125" s="2"/>
       <c r="AK125" s="2"/>
     </row>
-    <row r="126" spans="1:37" s="5" customFormat="1">
+    <row r="126" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="13"/>
       <c r="B126" s="11"/>
       <c r="C126" s="8"/>
@@ -3428,162 +3410,162 @@
       <c r="AJ126" s="2"/>
       <c r="AK126" s="2"/>
     </row>
-    <row r="127" spans="1:37" s="22" customFormat="1" ht="22">
+    <row r="127" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="128" spans="1:37" ht="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="129" spans="1:37" s="2" customFormat="1" ht="22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F129" s="11"/>
       <c r="G129" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="130" spans="1:37" s="2" customFormat="1" ht="22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B130" s="11"/>
       <c r="C130" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F130" s="11"/>
       <c r="G130" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="131" spans="1:37" ht="22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A131" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="132" spans="1:37" ht="20.25" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C132" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="133" spans="1:37" ht="22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A133" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="134" spans="1:37" ht="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B134" s="24"/>
       <c r="C134" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="135" spans="1:37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A135" s="13"/>
       <c r="B135" s="24"/>
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="1:37">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A136" s="13"/>
       <c r="B136" s="24"/>
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="1:37" s="22" customFormat="1" ht="22">
+    <row r="137" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="138" spans="1:37" s="5" customFormat="1" ht="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="11"/>
       <c r="G138" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
@@ -3616,24 +3598,24 @@
       <c r="AJ138" s="2"/>
       <c r="AK138" s="2"/>
     </row>
-    <row r="139" spans="1:37" s="4" customFormat="1" ht="20.25" customHeight="1">
+    <row r="139" spans="1:37" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="11"/>
       <c r="G139" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
@@ -3665,23 +3647,23 @@
       <c r="AJ139" s="2"/>
       <c r="AK139" s="2"/>
     </row>
-    <row r="140" spans="1:37" s="5" customFormat="1" ht="22">
+    <row r="140" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F140" s="11"/>
       <c r="G140" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
@@ -3714,23 +3696,23 @@
       <c r="AJ140" s="2"/>
       <c r="AK140" s="2"/>
     </row>
-    <row r="141" spans="1:37" s="5" customFormat="1" ht="22">
+    <row r="141" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F141" s="11"/>
       <c r="G141" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -3763,7 +3745,7 @@
       <c r="AJ141" s="2"/>
       <c r="AK141" s="2"/>
     </row>
-    <row r="142" spans="1:37" s="5" customFormat="1">
+    <row r="142" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="13"/>
       <c r="B142" s="11"/>
       <c r="C142" s="8"/>
@@ -3802,13 +3784,13 @@
       <c r="AJ142" s="2"/>
       <c r="AK142" s="2"/>
     </row>
-    <row r="143" spans="1:37">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A143" s="13"/>
     </row>
-    <row r="144" spans="1:37">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A144" s="13"/>
     </row>
-    <row r="145" spans="3:7">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C145" s="8"/>
       <c r="G145" s="2"/>
     </row>

--- a/org.panorama-research.mobstr.requirements/mobstr-requirements.xlsx
+++ b/org.panorama-research.mobstr.requirements/mobstr-requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Integrated Safety Analysis\Additional Artifacts\org.panorama-research.mobstr.requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janste/git/waters-challenge-2019/org.panorama-research.mobstr.requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B70E90-ECE1-4FC5-AAFE-61658929C5A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8462043-D56E-1543-9AAC-360D4FBB8E94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="3045" windowWidth="28035" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7420" yWindow="2180" windowWidth="30780" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="230">
   <si>
     <t>ID</t>
   </si>
@@ -689,13 +689,73 @@
   </si>
   <si>
     <t>Safety (check)</t>
+  </si>
+  <si>
+    <t>requires SR-1.1</t>
+  </si>
+  <si>
+    <t>requires SR-1.3</t>
+  </si>
+  <si>
+    <t>requires SR-1.5</t>
+  </si>
+  <si>
+    <t>requires SR-1.*</t>
+  </si>
+  <si>
+    <t>requires SR-2.*</t>
+  </si>
+  <si>
+    <t>requires SR-2.3</t>
+  </si>
+  <si>
+    <t>requires SR-2.5</t>
+  </si>
+  <si>
+    <t>requires SR-2.7</t>
+  </si>
+  <si>
+    <t>requires SR-3.3</t>
+  </si>
+  <si>
+    <t>requires SR-3.5</t>
+  </si>
+  <si>
+    <t>requires SR-4.3</t>
+  </si>
+  <si>
+    <t>requires SR-4.5</t>
+  </si>
+  <si>
+    <t>requires SR-5.1</t>
+  </si>
+  <si>
+    <t>requires SR-5.3</t>
+  </si>
+  <si>
+    <t>requires SR-5.5</t>
+  </si>
+  <si>
+    <t>requires SR-5.7</t>
+  </si>
+  <si>
+    <t>requires SR-5.9</t>
+  </si>
+  <si>
+    <t>requires SR-3.*</t>
+  </si>
+  <si>
+    <t>requires SR-4.*</t>
+  </si>
+  <si>
+    <t>requires SR-5.*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -741,8 +801,14 @@
       <color theme="1"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -785,6 +851,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -798,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -890,9 +962,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -908,7 +983,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1206,22 +1281,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="16" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="148.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="35.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="98.125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="90" style="17" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="22">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1321,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="19" customFormat="1" ht="22">
       <c r="A2" s="18" t="s">
         <v>60</v>
       </c>
@@ -1257,8 +1334,11 @@
       <c r="D2" s="19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H2" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="22">
       <c r="A3" s="13" t="s">
         <v>83</v>
       </c>
@@ -1272,7 +1352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="22">
       <c r="A4" s="13" t="s">
         <v>84</v>
       </c>
@@ -1286,7 +1366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="22">
       <c r="A5" s="13" t="s">
         <v>85</v>
       </c>
@@ -1300,7 +1380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="22">
       <c r="A6" s="13" t="s">
         <v>86</v>
       </c>
@@ -1314,7 +1394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="28" customFormat="1">
       <c r="A7" s="27" t="s">
         <v>68</v>
       </c>
@@ -1322,7 +1402,7 @@
       <c r="C7" s="30"/>
       <c r="F7" s="29"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="22">
       <c r="A8" s="13" t="s">
         <v>87</v>
       </c>
@@ -1335,8 +1415,11 @@
       <c r="G8" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>88</v>
       </c>
@@ -1371,7 +1454,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>89</v>
       </c>
@@ -1406,7 +1489,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="22">
       <c r="A11" s="13" t="s">
         <v>207</v>
       </c>
@@ -1420,7 +1503,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" s="28" customFormat="1">
       <c r="A12" s="27" t="s">
         <v>68</v>
       </c>
@@ -1428,7 +1511,7 @@
       <c r="C12" s="30"/>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="11" customFormat="1" ht="22">
       <c r="A13" s="13" t="s">
         <v>90</v>
       </c>
@@ -1442,7 +1525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" s="11" customFormat="1" ht="22">
       <c r="A14" s="13" t="s">
         <v>179</v>
       </c>
@@ -1456,7 +1539,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="11" customFormat="1" ht="22">
       <c r="A15" s="13" t="s">
         <v>181</v>
       </c>
@@ -1470,7 +1553,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="11" customFormat="1" ht="22">
       <c r="A16" s="13" t="s">
         <v>183</v>
       </c>
@@ -1484,13 +1567,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" s="29" customFormat="1">
       <c r="A17" s="27" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="31"/>
     </row>
-    <row r="18" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" s="11" customFormat="1" ht="22">
       <c r="A18" s="13" t="s">
         <v>156</v>
       </c>
@@ -1503,14 +1586,17 @@
       <c r="G18" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" s="29" customFormat="1">
       <c r="A19" s="27" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="31"/>
     </row>
-    <row r="20" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" s="11" customFormat="1" ht="22">
       <c r="A20" s="13" t="s">
         <v>91</v>
       </c>
@@ -1524,13 +1610,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" s="29" customFormat="1">
       <c r="A21" s="27" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" s="11" customFormat="1" ht="22">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -1543,22 +1629,25 @@
       <c r="G22" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" s="29" customFormat="1">
       <c r="A23" s="27" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="31"/>
     </row>
-    <row r="24" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" s="11" customFormat="1">
       <c r="A24" s="13"/>
       <c r="C24" s="26"/>
     </row>
-    <row r="25" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" s="11" customFormat="1">
       <c r="A25" s="13"/>
       <c r="C25" s="26"/>
     </row>
-    <row r="26" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" s="19" customFormat="1" ht="22">
       <c r="A26" s="18" t="s">
         <v>51</v>
       </c>
@@ -1571,8 +1660,11 @@
       <c r="D26" s="19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="H26" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="22">
       <c r="A27" s="13" t="s">
         <v>93</v>
       </c>
@@ -1588,7 +1680,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" ht="22">
       <c r="A28" s="13" t="s">
         <v>94</v>
       </c>
@@ -1604,7 +1696,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" s="11" customFormat="1" ht="22">
       <c r="A29" s="13" t="s">
         <v>95</v>
       </c>
@@ -1618,13 +1710,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" s="29" customFormat="1">
       <c r="A30" s="27" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="31"/>
     </row>
-    <row r="31" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" s="11" customFormat="1" ht="22">
       <c r="A31" s="13" t="s">
         <v>96</v>
       </c>
@@ -1637,8 +1729,11 @@
       <c r="G31" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" s="5" customFormat="1" ht="44">
       <c r="A32" s="13" t="s">
         <v>97</v>
       </c>
@@ -1685,7 +1780,7 @@
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
     </row>
-    <row r="33" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" s="5" customFormat="1" ht="44">
       <c r="A33" s="13" t="s">
         <v>189</v>
       </c>
@@ -1732,13 +1827,13 @@
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
     </row>
-    <row r="34" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" s="29" customFormat="1">
       <c r="A34" s="27" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="31"/>
     </row>
-    <row r="35" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" s="11" customFormat="1" ht="22">
       <c r="A35" s="13" t="s">
         <v>98</v>
       </c>
@@ -1752,7 +1847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" s="11" customFormat="1" ht="22">
       <c r="A36" s="13" t="s">
         <v>185</v>
       </c>
@@ -1766,7 +1861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" s="11" customFormat="1" ht="44">
       <c r="A37" s="13" t="s">
         <v>191</v>
       </c>
@@ -1780,13 +1875,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" s="29" customFormat="1">
       <c r="A38" s="27" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="31"/>
     </row>
-    <row r="39" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" s="11" customFormat="1" ht="22">
       <c r="A39" s="13" t="s">
         <v>99</v>
       </c>
@@ -1799,14 +1894,17 @@
       <c r="G39" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" s="29" customFormat="1">
       <c r="A40" s="27" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="31"/>
     </row>
-    <row r="41" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" s="11" customFormat="1" ht="22">
       <c r="A41" s="13" t="s">
         <v>100</v>
       </c>
@@ -1820,7 +1918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" s="11" customFormat="1" ht="22">
       <c r="A42" s="13" t="s">
         <v>187</v>
       </c>
@@ -1834,7 +1932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" s="28" customFormat="1">
       <c r="A43" s="27" t="s">
         <v>68</v>
       </c>
@@ -1842,7 +1940,7 @@
       <c r="C43" s="30"/>
       <c r="F43" s="29"/>
     </row>
-    <row r="44" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" s="5" customFormat="1" ht="22">
       <c r="A44" s="13" t="s">
         <v>101</v>
       </c>
@@ -1858,7 +1956,9 @@
       <c r="G44" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -1889,7 +1989,7 @@
       <c r="AJ44" s="2"/>
       <c r="AK44" s="2"/>
     </row>
-    <row r="45" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" s="28" customFormat="1">
       <c r="A45" s="27" t="s">
         <v>68</v>
       </c>
@@ -1897,7 +1997,7 @@
       <c r="C45" s="30"/>
       <c r="F45" s="29"/>
     </row>
-    <row r="46" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" s="5" customFormat="1">
       <c r="A46" s="13"/>
       <c r="B46" s="11"/>
       <c r="C46" s="8"/>
@@ -1936,11 +2036,11 @@
       <c r="AJ46" s="2"/>
       <c r="AK46" s="2"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37">
       <c r="A47" s="13"/>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" s="7" customFormat="1" ht="22">
       <c r="A48" s="18" t="s">
         <v>52</v>
       </c>
@@ -1956,8 +2056,11 @@
       <c r="F48" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H48" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="22">
       <c r="A49" s="13" t="s">
         <v>102</v>
       </c>
@@ -1974,7 +2077,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="2" customFormat="1" ht="22">
       <c r="A50" s="13" t="s">
         <v>103</v>
       </c>
@@ -1991,7 +2094,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="2" customFormat="1" ht="22">
       <c r="A51" s="13" t="s">
         <v>104</v>
       </c>
@@ -2007,7 +2110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="28" customFormat="1">
       <c r="A52" s="27" t="s">
         <v>68</v>
       </c>
@@ -2015,7 +2118,7 @@
       <c r="C52" s="30"/>
       <c r="F52" s="29"/>
     </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="2" customFormat="1" ht="22">
       <c r="A53" s="13" t="s">
         <v>105</v>
       </c>
@@ -2030,8 +2133,11 @@
       <c r="G53" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H53" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="28" customFormat="1">
       <c r="A54" s="27" t="s">
         <v>68</v>
       </c>
@@ -2039,7 +2145,7 @@
       <c r="C54" s="30"/>
       <c r="F54" s="29"/>
     </row>
-    <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="2" customFormat="1" ht="22">
       <c r="A55" s="13" t="s">
         <v>106</v>
       </c>
@@ -2055,7 +2161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="28" customFormat="1">
       <c r="A56" s="27" t="s">
         <v>68</v>
       </c>
@@ -2063,7 +2169,7 @@
       <c r="C56" s="30"/>
       <c r="F56" s="29"/>
     </row>
-    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="2" customFormat="1" ht="22">
       <c r="A57" s="13" t="s">
         <v>107</v>
       </c>
@@ -2078,8 +2184,11 @@
       <c r="G57" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="22">
       <c r="A58" s="13" t="s">
         <v>108</v>
       </c>
@@ -2093,7 +2202,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="22">
       <c r="A59" s="13" t="s">
         <v>109</v>
       </c>
@@ -2107,13 +2216,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" s="13"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
     </row>
-    <row r="62" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="7" customFormat="1" ht="22">
       <c r="A62" s="18" t="s">
         <v>53</v>
       </c>
@@ -2129,8 +2238,11 @@
       <c r="F62" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" s="37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="22">
       <c r="A63" s="15" t="s">
         <v>110</v>
       </c>
@@ -2146,7 +2258,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="22">
       <c r="A64" s="15" t="s">
         <v>111</v>
       </c>
@@ -2162,7 +2274,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="22">
       <c r="A65" s="15" t="s">
         <v>112</v>
       </c>
@@ -2176,7 +2288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="44">
       <c r="A66" s="15" t="s">
         <v>113</v>
       </c>
@@ -2190,7 +2302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="44">
       <c r="A67" s="15" t="s">
         <v>193</v>
       </c>
@@ -2204,7 +2316,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="44">
       <c r="A68" s="15" t="s">
         <v>195</v>
       </c>
@@ -2218,7 +2330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="44">
       <c r="A69" s="15" t="s">
         <v>199</v>
       </c>
@@ -2232,7 +2344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="44">
       <c r="A70" s="15" t="s">
         <v>201</v>
       </c>
@@ -2246,7 +2358,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="44">
       <c r="A71" s="15" t="s">
         <v>197</v>
       </c>
@@ -2260,7 +2372,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="28" customFormat="1">
       <c r="A72" s="27" t="s">
         <v>68</v>
       </c>
@@ -2268,7 +2380,7 @@
       <c r="C72" s="30"/>
       <c r="F72" s="29"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="22">
       <c r="A73" s="15" t="s">
         <v>114</v>
       </c>
@@ -2281,8 +2393,11 @@
       <c r="G73" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="22">
       <c r="A74" s="15" t="s">
         <v>115</v>
       </c>
@@ -2296,7 +2411,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="28" customFormat="1">
       <c r="A75" s="27" t="s">
         <v>68</v>
       </c>
@@ -2304,7 +2419,7 @@
       <c r="C75" s="30"/>
       <c r="F75" s="29"/>
     </row>
-    <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="2" customFormat="1" ht="22">
       <c r="A76" s="13" t="s">
         <v>116</v>
       </c>
@@ -2320,7 +2435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="28" customFormat="1">
       <c r="A77" s="27" t="s">
         <v>68</v>
       </c>
@@ -2328,7 +2443,7 @@
       <c r="C77" s="30"/>
       <c r="F77" s="29"/>
     </row>
-    <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="2" customFormat="1" ht="22">
       <c r="A78" s="13" t="s">
         <v>117</v>
       </c>
@@ -2343,8 +2458,11 @@
       <c r="G78" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H78" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="28" customFormat="1">
       <c r="A79" s="27" t="s">
         <v>68</v>
       </c>
@@ -2352,11 +2470,11 @@
       <c r="C79" s="30"/>
       <c r="F79" s="29"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="C80" s="8"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:37" s="5" customFormat="1">
       <c r="A81" s="13"/>
       <c r="B81" s="11"/>
       <c r="C81" s="8"/>
@@ -2395,7 +2513,7 @@
       <c r="AJ81" s="2"/>
       <c r="AK81" s="2"/>
     </row>
-    <row r="82" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:37" s="7" customFormat="1" ht="22">
       <c r="A82" s="18" t="s">
         <v>65</v>
       </c>
@@ -2411,8 +2529,11 @@
       <c r="F82" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H82" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:37" s="2" customFormat="1" ht="22">
       <c r="A83" s="13" t="s">
         <v>118</v>
       </c>
@@ -2428,7 +2549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37" s="5" customFormat="1" ht="22">
       <c r="A84" s="13" t="s">
         <v>119</v>
       </c>
@@ -2475,7 +2596,7 @@
       <c r="AJ84" s="2"/>
       <c r="AK84" s="2"/>
     </row>
-    <row r="85" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:37" s="28" customFormat="1">
       <c r="A85" s="27" t="s">
         <v>68</v>
       </c>
@@ -2483,7 +2604,7 @@
       <c r="C85" s="30"/>
       <c r="F85" s="29"/>
     </row>
-    <row r="86" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:37" s="2" customFormat="1" ht="22">
       <c r="A86" s="13" t="s">
         <v>120</v>
       </c>
@@ -2498,8 +2619,11 @@
       <c r="G86" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="87" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H86" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:37" s="5" customFormat="1" ht="44">
       <c r="A87" s="13" t="s">
         <v>121</v>
       </c>
@@ -2546,7 +2670,7 @@
       <c r="AJ87" s="2"/>
       <c r="AK87" s="2"/>
     </row>
-    <row r="88" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:37" s="5" customFormat="1" ht="22">
       <c r="A88" s="13" t="s">
         <v>122</v>
       </c>
@@ -2593,7 +2717,7 @@
       <c r="AJ88" s="2"/>
       <c r="AK88" s="2"/>
     </row>
-    <row r="89" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:37" s="5" customFormat="1" ht="44">
       <c r="A89" s="13" t="s">
         <v>205</v>
       </c>
@@ -2640,7 +2764,7 @@
       <c r="AJ89" s="2"/>
       <c r="AK89" s="2"/>
     </row>
-    <row r="90" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:37" s="28" customFormat="1">
       <c r="A90" s="27" t="s">
         <v>68</v>
       </c>
@@ -2648,7 +2772,7 @@
       <c r="C90" s="30"/>
       <c r="F90" s="29"/>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:37" ht="22">
       <c r="A91" s="15" t="s">
         <v>123</v>
       </c>
@@ -2662,7 +2786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:37" s="5" customFormat="1" ht="44">
       <c r="A92" s="13" t="s">
         <v>124</v>
       </c>
@@ -2709,7 +2833,7 @@
       <c r="AJ92" s="2"/>
       <c r="AK92" s="2"/>
     </row>
-    <row r="93" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:37" s="5" customFormat="1" ht="44">
       <c r="A93" s="13" t="s">
         <v>204</v>
       </c>
@@ -2756,7 +2880,7 @@
       <c r="AJ93" s="2"/>
       <c r="AK93" s="2"/>
     </row>
-    <row r="94" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:37" s="28" customFormat="1">
       <c r="A94" s="27" t="s">
         <v>68</v>
       </c>
@@ -2764,7 +2888,7 @@
       <c r="C94" s="30"/>
       <c r="F94" s="29"/>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37" ht="22">
       <c r="A95" s="15" t="s">
         <v>125</v>
       </c>
@@ -2777,8 +2901,11 @@
       <c r="G95" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="96" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H95" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="96" spans="1:37" s="5" customFormat="1" ht="44">
       <c r="A96" s="13" t="s">
         <v>126</v>
       </c>
@@ -2825,7 +2952,7 @@
       <c r="AJ96" s="2"/>
       <c r="AK96" s="2"/>
     </row>
-    <row r="97" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:37" s="28" customFormat="1">
       <c r="A97" s="27" t="s">
         <v>68</v>
       </c>
@@ -2833,7 +2960,7 @@
       <c r="C97" s="30"/>
       <c r="F97" s="29"/>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:37" ht="22">
       <c r="A98" s="15" t="s">
         <v>127</v>
       </c>
@@ -2847,7 +2974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:37" s="28" customFormat="1">
       <c r="A99" s="27" t="s">
         <v>68</v>
       </c>
@@ -2855,7 +2982,7 @@
       <c r="C99" s="30"/>
       <c r="F99" s="29"/>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:37" ht="22">
       <c r="A100" s="15" t="s">
         <v>128</v>
       </c>
@@ -2868,8 +2995,11 @@
       <c r="G100" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H100" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:37" s="28" customFormat="1">
       <c r="A101" s="27" t="s">
         <v>68</v>
       </c>
@@ -2877,7 +3007,7 @@
       <c r="C101" s="30"/>
       <c r="F101" s="29"/>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:37" ht="22">
       <c r="A102" s="15" t="s">
         <v>129</v>
       </c>
@@ -2891,7 +3021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:37" s="28" customFormat="1">
       <c r="A103" s="27" t="s">
         <v>68</v>
       </c>
@@ -2899,7 +3029,7 @@
       <c r="C103" s="30"/>
       <c r="F103" s="29"/>
     </row>
-    <row r="104" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:37" s="5" customFormat="1" ht="22">
       <c r="A104" s="13" t="s">
         <v>130</v>
       </c>
@@ -2915,7 +3045,9 @@
       <c r="G104" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H104" s="2"/>
+      <c r="H104" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
@@ -2946,7 +3078,7 @@
       <c r="AJ104" s="2"/>
       <c r="AK104" s="2"/>
     </row>
-    <row r="105" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:37" s="28" customFormat="1">
       <c r="A105" s="27" t="s">
         <v>68</v>
       </c>
@@ -2954,7 +3086,7 @@
       <c r="C105" s="30"/>
       <c r="F105" s="29"/>
     </row>
-    <row r="106" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:37" s="5" customFormat="1" ht="22">
       <c r="A106" s="13" t="s">
         <v>131</v>
       </c>
@@ -3001,7 +3133,7 @@
       <c r="AJ106" s="2"/>
       <c r="AK106" s="2"/>
     </row>
-    <row r="107" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:37" s="28" customFormat="1">
       <c r="A107" s="27" t="s">
         <v>68</v>
       </c>
@@ -3009,7 +3141,7 @@
       <c r="C107" s="30"/>
       <c r="F107" s="29"/>
     </row>
-    <row r="108" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:37" s="5" customFormat="1" ht="22">
       <c r="A108" s="13" t="s">
         <v>132</v>
       </c>
@@ -3025,7 +3157,9 @@
       <c r="G108" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H108" s="2"/>
+      <c r="H108" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
@@ -3056,7 +3190,7 @@
       <c r="AJ108" s="2"/>
       <c r="AK108" s="2"/>
     </row>
-    <row r="109" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:37" s="28" customFormat="1">
       <c r="A109" s="27" t="s">
         <v>68</v>
       </c>
@@ -3064,7 +3198,7 @@
       <c r="C109" s="30"/>
       <c r="F109" s="29"/>
     </row>
-    <row r="110" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:37" s="5" customFormat="1">
       <c r="A110" s="13"/>
       <c r="B110" s="11"/>
       <c r="C110" s="8"/>
@@ -3103,7 +3237,7 @@
       <c r="AJ110" s="2"/>
       <c r="AK110" s="2"/>
     </row>
-    <row r="111" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:37" s="5" customFormat="1">
       <c r="A111" s="13"/>
       <c r="B111" s="11"/>
       <c r="C111" s="8"/>
@@ -3142,7 +3276,7 @@
       <c r="AJ111" s="2"/>
       <c r="AK111" s="2"/>
     </row>
-    <row r="112" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:37" s="22" customFormat="1" ht="22">
       <c r="A112" s="21" t="s">
         <v>133</v>
       </c>
@@ -3153,7 +3287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" ht="22">
       <c r="A113" s="13" t="s">
         <v>134</v>
       </c>
@@ -3167,7 +3301,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" ht="44">
       <c r="A114" s="13" t="s">
         <v>135</v>
       </c>
@@ -3181,7 +3315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" ht="22">
       <c r="A115" s="15" t="s">
         <v>136</v>
       </c>
@@ -3195,7 +3329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" ht="22">
       <c r="A116" s="15" t="s">
         <v>137</v>
       </c>
@@ -3209,7 +3343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" ht="44">
       <c r="A117" s="15" t="s">
         <v>138</v>
       </c>
@@ -3227,7 +3361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37" ht="22">
       <c r="A118" s="15" t="s">
         <v>139</v>
       </c>
@@ -3245,7 +3379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37" ht="44">
       <c r="A119" s="15" t="s">
         <v>140</v>
       </c>
@@ -3262,7 +3396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37" ht="22">
       <c r="A120" s="15" t="s">
         <v>141</v>
       </c>
@@ -3276,7 +3410,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:37" ht="44">
       <c r="A121" s="15" t="s">
         <v>142</v>
       </c>
@@ -3290,7 +3424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37" ht="44">
       <c r="A122" s="15" t="s">
         <v>143</v>
       </c>
@@ -3304,7 +3438,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:37" ht="20.25" customHeight="1">
       <c r="A123" s="15" t="s">
         <v>144</v>
       </c>
@@ -3318,7 +3452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37" ht="22">
       <c r="A124" s="15" t="s">
         <v>145</v>
       </c>
@@ -3332,7 +3466,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37" s="5" customFormat="1">
       <c r="A125" s="13"/>
       <c r="B125" s="11"/>
       <c r="C125" s="8"/>
@@ -3371,7 +3505,7 @@
       <c r="AJ125" s="2"/>
       <c r="AK125" s="2"/>
     </row>
-    <row r="126" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:37" s="5" customFormat="1">
       <c r="A126" s="13"/>
       <c r="B126" s="11"/>
       <c r="C126" s="8"/>
@@ -3410,7 +3544,7 @@
       <c r="AJ126" s="2"/>
       <c r="AK126" s="2"/>
     </row>
-    <row r="127" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37" s="22" customFormat="1" ht="44">
       <c r="A127" s="21" t="s">
         <v>146</v>
       </c>
@@ -3421,7 +3555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" ht="44">
       <c r="A128" s="13" t="s">
         <v>147</v>
       </c>
@@ -3438,7 +3572,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:37" s="2" customFormat="1" ht="22">
       <c r="A129" s="13" t="s">
         <v>148</v>
       </c>
@@ -3454,7 +3588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:37" s="2" customFormat="1" ht="22">
       <c r="A130" s="13" t="s">
         <v>149</v>
       </c>
@@ -3470,7 +3604,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:37" ht="44">
       <c r="A131" s="13" t="s">
         <v>150</v>
       </c>
@@ -3484,7 +3618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:37" ht="20.25" customHeight="1">
       <c r="A132" s="13" t="s">
         <v>171</v>
       </c>
@@ -3498,7 +3632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:37" ht="44">
       <c r="A133" s="13" t="s">
         <v>172</v>
       </c>
@@ -3512,7 +3646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:37" ht="22">
       <c r="A134" s="13" t="s">
         <v>173</v>
       </c>
@@ -3530,17 +3664,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:37">
       <c r="A135" s="13"/>
       <c r="B135" s="24"/>
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:37">
       <c r="A136" s="13"/>
       <c r="B136" s="24"/>
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:37" s="22" customFormat="1" ht="44">
       <c r="A137" s="21" t="s">
         <v>151</v>
       </c>
@@ -3551,7 +3685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:37" s="5" customFormat="1" ht="22">
       <c r="A138" s="13" t="s">
         <v>152</v>
       </c>
@@ -3598,7 +3732,7 @@
       <c r="AJ138" s="2"/>
       <c r="AK138" s="2"/>
     </row>
-    <row r="139" spans="1:37" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:37" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="A139" s="13" t="s">
         <v>153</v>
       </c>
@@ -3647,7 +3781,7 @@
       <c r="AJ139" s="2"/>
       <c r="AK139" s="2"/>
     </row>
-    <row r="140" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:37" s="5" customFormat="1" ht="44">
       <c r="A140" s="13" t="s">
         <v>154</v>
       </c>
@@ -3696,7 +3830,7 @@
       <c r="AJ140" s="2"/>
       <c r="AK140" s="2"/>
     </row>
-    <row r="141" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:37" s="5" customFormat="1" ht="44">
       <c r="A141" s="13" t="s">
         <v>155</v>
       </c>
@@ -3745,7 +3879,7 @@
       <c r="AJ141" s="2"/>
       <c r="AK141" s="2"/>
     </row>
-    <row r="142" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:37" s="5" customFormat="1">
       <c r="A142" s="13"/>
       <c r="B142" s="11"/>
       <c r="C142" s="8"/>
@@ -3784,13 +3918,13 @@
       <c r="AJ142" s="2"/>
       <c r="AK142" s="2"/>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:37">
       <c r="A143" s="13"/>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:37">
       <c r="A144" s="13"/>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:7">
       <c r="C145" s="8"/>
       <c r="G145" s="2"/>
     </row>

--- a/org.panorama-research.mobstr.requirements/mobstr-requirements.xlsx
+++ b/org.panorama-research.mobstr.requirements/mobstr-requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janste/git/waters-challenge-2019/org.panorama-research.mobstr.requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8462043-D56E-1543-9AAC-360D4FBB8E94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64AAE0F-A715-E048-AFD1-4C32AA6349BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="2180" windowWidth="30780" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11140" yWindow="4260" windowWidth="28500" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -700,12 +700,6 @@
     <t>requires SR-1.5</t>
   </si>
   <si>
-    <t>requires SR-1.*</t>
-  </si>
-  <si>
-    <t>requires SR-2.*</t>
-  </si>
-  <si>
     <t>requires SR-2.3</t>
   </si>
   <si>
@@ -742,13 +736,19 @@
     <t>requires SR-5.9</t>
   </si>
   <si>
-    <t>requires SR-3.*</t>
-  </si>
-  <si>
-    <t>requires SR-4.*</t>
-  </si>
-  <si>
-    <t>requires SR-5.*</t>
+    <t>contains SR-1.*</t>
+  </si>
+  <si>
+    <t>contains SR-2.*</t>
+  </si>
+  <si>
+    <t>contains SR-3.*</t>
+  </si>
+  <si>
+    <t>contains SR-4.*</t>
+  </si>
+  <si>
+    <t>contains SR-5.*</t>
   </si>
 </sst>
 </file>
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
@@ -1335,7 +1335,7 @@
         <v>74</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="22">
@@ -1661,7 +1661,7 @@
         <v>74</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="22">
@@ -1730,7 +1730,7 @@
         <v>41</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:37" s="5" customFormat="1" ht="44">
@@ -1895,7 +1895,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:37" s="29" customFormat="1">
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -2134,7 +2134,7 @@
         <v>39</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="28" customFormat="1">
@@ -2185,7 +2185,7 @@
         <v>5</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="22">
@@ -2394,7 +2394,7 @@
         <v>41</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="22">
@@ -2459,7 +2459,7 @@
         <v>5</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="28" customFormat="1">
@@ -2620,7 +2620,7 @@
         <v>31</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:37" s="5" customFormat="1" ht="44">
@@ -2902,7 +2902,7 @@
         <v>41</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:37" s="5" customFormat="1" ht="44">
@@ -2996,7 +2996,7 @@
         <v>5</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:37" s="28" customFormat="1">
@@ -3046,7 +3046,7 @@
         <v>5</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
